--- a/Database/Currency.xlsx
+++ b/Database/Currency.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Year 3\Group 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\level-6-l6-group-1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="8">
   <si>
     <t>Level</t>
   </si>
@@ -38,19 +38,22 @@
     <t>Stardust earned</t>
   </si>
   <si>
-    <t>Bouns for three star</t>
+    <t>Changes to -20 here</t>
   </si>
   <si>
-    <t>Bouns for Two star</t>
+    <t>Bonus for three star</t>
   </si>
   <si>
-    <t>Bouns for one star</t>
+    <t>Bonus for Two star</t>
+  </si>
+  <si>
+    <t>Bonus for one star</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,11 +394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +409,7 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -419,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,7 +1605,7 @@
         <v>577.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>573.75</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>566.25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1700,8 +1704,11 @@
         <f t="shared" si="2"/>
         <v>563.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>560.25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1758,7 @@
         <v>557.25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>554.25</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>551.25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1833,7 @@
         <v>548.25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1858,7 @@
         <v>545.25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>542.25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>539.25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>536.25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>533.25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>530.25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>

--- a/Database/Currency.xlsx
+++ b/Database/Currency.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\level-6-l6-group-1\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Year 3\Group 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="7">
   <si>
     <t>Level</t>
   </si>
@@ -38,22 +38,19 @@
     <t>Stardust earned</t>
   </si>
   <si>
-    <t>Changes to -20 here</t>
+    <t>Bouns for three star</t>
   </si>
   <si>
-    <t>Bonus for three star</t>
+    <t>Bouns for Two star</t>
   </si>
   <si>
-    <t>Bonus for Two star</t>
-  </si>
-  <si>
-    <t>Bonus for one star</t>
+    <t>Bouns for one star</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,11 +391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +406,6 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -423,13 +419,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -443,7 +439,6 @@
         <v>5000</v>
       </c>
       <c r="D2">
-        <f>C2/10/2</f>
         <v>250</v>
       </c>
       <c r="E2">
@@ -468,16 +463,15 @@
         <v>4975</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">C3/10/2</f>
-        <v>248.75</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">D3*2</f>
-        <v>497.5</v>
+        <f t="shared" ref="E3:E66" si="0">D3*2</f>
+        <v>500</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="2">D3*3</f>
-        <v>746.25</v>
+        <f t="shared" ref="F3:F66" si="1">D3*3</f>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,24 +479,23 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B51" si="3">SUM(B3,1)</f>
+        <f t="shared" ref="B4:B51" si="2">SUM(B3,1)</f>
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C51" si="4">SUM(C3,-25)</f>
+        <f t="shared" ref="C4:C51" si="3">SUM(C3,-25)</f>
         <v>4950</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>247.5</v>
+        <v>250</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>495</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>742.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,24 +503,23 @@
         <v>0</v>
       </c>
       <c r="B5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="4"/>
         <v>4925</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>246.25</v>
+        <v>250</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>492.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>738.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,24 +527,23 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="4"/>
         <v>4900</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>490</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>735</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,24 +551,23 @@
         <v>0</v>
       </c>
       <c r="B7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="4"/>
         <v>4875</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>243.75</v>
+        <v>250</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>487.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>731.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,24 +575,23 @@
         <v>0</v>
       </c>
       <c r="B8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="4"/>
         <v>4850</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>242.5</v>
+        <v>250</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>485</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>727.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,24 +599,23 @@
         <v>0</v>
       </c>
       <c r="B9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="4"/>
         <v>4825</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>241.25</v>
+        <v>250</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>482.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>723.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,24 +623,23 @@
         <v>0</v>
       </c>
       <c r="B10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>720</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,24 +647,23 @@
         <v>0</v>
       </c>
       <c r="B11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
         <v>4775</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>238.75</v>
+        <v>250</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>477.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>716.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,24 +671,23 @@
         <v>0</v>
       </c>
       <c r="B12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
         <v>4750</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>237.5</v>
+        <v>250</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>475</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>712.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,24 +695,23 @@
         <v>0</v>
       </c>
       <c r="B13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
         <v>4725</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>236.25</v>
+        <v>250</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>472.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>708.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,24 +719,23 @@
         <v>0</v>
       </c>
       <c r="B14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="4"/>
         <v>4700</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>470</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>705</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,24 +743,23 @@
         <v>0</v>
       </c>
       <c r="B15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
         <v>4675</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>233.75</v>
+        <v>250</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>467.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>701.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,24 +767,23 @@
         <v>0</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
         <v>4650</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>232.5</v>
+        <v>250</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>465</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>697.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,24 +791,23 @@
         <v>0</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
         <v>4625</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>231.25</v>
+        <v>250</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>462.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>693.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,24 +815,23 @@
         <v>0</v>
       </c>
       <c r="B18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>460</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>690</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,24 +839,23 @@
         <v>0</v>
       </c>
       <c r="B19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
         <v>4575</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>228.75</v>
+        <v>250</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>457.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>686.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,24 +863,23 @@
         <v>0</v>
       </c>
       <c r="B20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
         <v>4550</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>227.5</v>
+        <v>250</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>455</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
-        <v>682.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,24 +887,23 @@
         <v>0</v>
       </c>
       <c r="B21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="4"/>
         <v>4525</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>226.25</v>
+        <v>250</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>452.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
-        <v>678.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,24 +911,23 @@
         <v>0</v>
       </c>
       <c r="B22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="4"/>
         <v>4500</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
-        <v>675</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,24 +935,23 @@
         <v>0</v>
       </c>
       <c r="B23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="4"/>
         <v>4475</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>223.75</v>
+        <v>250</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>447.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
-        <v>671.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,24 +959,23 @@
         <v>0</v>
       </c>
       <c r="B24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="4"/>
         <v>4450</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>222.5</v>
+        <v>250</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>445</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>667.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,24 +983,23 @@
         <v>0</v>
       </c>
       <c r="B25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="4"/>
         <v>4425</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>221.25</v>
+        <v>250</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>442.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
-        <v>663.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,24 +1007,23 @@
         <v>0</v>
       </c>
       <c r="B26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>440</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,24 +1031,23 @@
         <v>0</v>
       </c>
       <c r="B27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
         <v>4375</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>218.75</v>
+        <v>250</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>437.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>656.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,24 +1055,23 @@
         <v>0</v>
       </c>
       <c r="B28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
         <v>4350</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>217.5</v>
+        <v>250</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>435</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
-        <v>652.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,24 +1079,23 @@
         <v>0</v>
       </c>
       <c r="B29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="4"/>
         <v>4325</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>216.25</v>
+        <v>250</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>432.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>648.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,24 +1103,23 @@
         <v>0</v>
       </c>
       <c r="B30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="4"/>
         <v>4300</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>430</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
-        <v>645</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,24 +1127,23 @@
         <v>0</v>
       </c>
       <c r="B31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="4"/>
         <v>4275</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>213.75</v>
+        <v>250</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>427.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>641.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,24 +1151,23 @@
         <v>0</v>
       </c>
       <c r="B32">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="4"/>
         <v>4250</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>212.5</v>
+        <v>250</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>425</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
-        <v>637.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,24 +1175,23 @@
         <v>0</v>
       </c>
       <c r="B33">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="4"/>
         <v>4225</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>211.25</v>
+        <v>250</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
-        <v>422.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
-        <v>633.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,24 +1199,23 @@
         <v>0</v>
       </c>
       <c r="B34">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="4"/>
         <v>4200</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
-        <v>630</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,24 +1223,23 @@
         <v>0</v>
       </c>
       <c r="B35">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="4"/>
         <v>4175</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>208.75</v>
+        <v>250</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>417.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
-        <v>626.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,24 +1247,23 @@
         <v>0</v>
       </c>
       <c r="B36">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="4"/>
         <v>4150</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>207.5</v>
+        <v>250</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>415</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
-        <v>622.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,24 +1271,23 @@
         <v>0</v>
       </c>
       <c r="B37">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="4"/>
         <v>4125</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>206.25</v>
+        <v>250</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>412.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
-        <v>618.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,24 +1295,23 @@
         <v>0</v>
       </c>
       <c r="B38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>410</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
-        <v>615</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,24 +1319,23 @@
         <v>0</v>
       </c>
       <c r="B39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="4"/>
         <v>4075</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>203.75</v>
+        <v>250</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>407.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
-        <v>611.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,24 +1343,23 @@
         <v>0</v>
       </c>
       <c r="B40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="4"/>
         <v>4050</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
+        <v>250</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>405</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
-        <v>607.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,24 +1367,23 @@
         <v>0</v>
       </c>
       <c r="B41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="4"/>
         <v>4025</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>201.25</v>
+        <v>250</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>402.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
-        <v>603.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,24 +1391,23 @@
         <v>0</v>
       </c>
       <c r="B42">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C42">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,24 +1415,23 @@
         <v>0</v>
       </c>
       <c r="B43">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="4"/>
         <v>3975</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>198.75</v>
+        <v>250</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>397.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
-        <v>596.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,24 +1439,23 @@
         <v>0</v>
       </c>
       <c r="B44">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C44">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="4"/>
         <v>3950</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>197.5</v>
+        <v>250</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>395</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
-        <v>592.5</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,24 +1463,23 @@
         <v>0</v>
       </c>
       <c r="B45">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C45">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="4"/>
         <v>3925</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>196.25</v>
+        <v>250</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>392.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
-        <v>588.75</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,24 +1487,23 @@
         <v>0</v>
       </c>
       <c r="B46">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C46">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="4"/>
         <v>3900</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
-        <v>585</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,24 +1511,23 @@
         <v>0</v>
       </c>
       <c r="B47">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C47">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="4"/>
         <v>3875</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>193.75</v>
+        <v>250</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>387.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
-        <v>581.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,107 +1535,103 @@
         <v>0</v>
       </c>
       <c r="B48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C48">
         <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="4"/>
         <v>3850</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>192.5</v>
+        <v>250</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>385</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F48">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
         <f t="shared" si="2"/>
-        <v>577.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="4"/>
         <v>3825</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>191.25</v>
+        <v>250</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>382.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F49">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
         <f t="shared" si="2"/>
-        <v>573.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>380</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F50">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
         <f t="shared" si="2"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="4"/>
         <v>3775</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>188.75</v>
+        <v>250</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>377.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
-        <v>566.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="5">SUM(B51,1)</f>
+        <f t="shared" ref="B52" si="4">SUM(B51,1)</f>
         <v>51</v>
       </c>
       <c r="C52">
@@ -1693,319 +1639,303 @@
         <v>3755</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>187.75</v>
+        <v>250</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>375.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
-        <v>563.25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B76" si="6">SUM(B52,1)</f>
+        <f t="shared" ref="B53:B76" si="5">SUM(B52,1)</f>
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:C76" si="7">SUM(C52,-20)</f>
+        <f t="shared" ref="C53:C76" si="6">SUM(C52,-20)</f>
         <v>3735</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>186.75</v>
+        <v>250</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
-        <v>373.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
-        <v>560.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="C54">
         <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="7"/>
         <v>3715</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>185.75</v>
+        <v>250</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
-        <v>371.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
-        <v>557.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="7"/>
         <v>3695</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>184.75</v>
+        <v>250</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
-        <v>369.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
-        <v>554.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C56">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="7"/>
         <v>3675</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>183.75</v>
+        <v>250</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
-        <v>367.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
-        <v>551.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="C57">
         <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="7"/>
         <v>3655</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>182.75</v>
+        <v>250</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
-        <v>365.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
-        <v>548.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="7"/>
         <v>3635</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>181.75</v>
+        <v>250</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
-        <v>363.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
-        <v>545.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="7"/>
         <v>3615</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>180.75</v>
+        <v>250</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
-        <v>361.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F59">
-        <f t="shared" si="2"/>
-        <v>542.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C60">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="7"/>
         <v>3595</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>179.75</v>
+        <v>250</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
-        <v>359.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F60">
-        <f t="shared" si="2"/>
-        <v>539.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="7"/>
         <v>3575</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>178.75</v>
+        <v>250</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>357.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
-        <v>536.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C62">
         <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="7"/>
         <v>3555</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>177.75</v>
+        <v>250</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>355.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
-        <v>533.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="C63">
         <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="7"/>
         <v>3535</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>176.75</v>
+        <v>250</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
-        <v>353.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
-        <v>530.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C64">
         <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="7"/>
         <v>3515</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>175.75</v>
+        <v>250</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
-        <v>351.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F64">
-        <f t="shared" si="2"/>
-        <v>527.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,24 +1943,23 @@
         <v>0</v>
       </c>
       <c r="B65">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C65">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="7"/>
         <v>3495</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>174.75</v>
+        <v>250</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
-        <v>349.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
-        <v>524.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,24 +1967,23 @@
         <v>0</v>
       </c>
       <c r="B66">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="C66">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="7"/>
         <v>3475</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>173.75</v>
+        <v>250</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>347.5</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F66">
-        <f t="shared" si="2"/>
-        <v>521.25</v>
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,24 +1991,23 @@
         <v>0</v>
       </c>
       <c r="B67">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="7"/>
         <v>3455</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="8">C67/10/2</f>
-        <v>172.75</v>
+        <v>250</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="9">D67*2</f>
-        <v>345.5</v>
+        <f t="shared" ref="E67:E130" si="7">D67*2</f>
+        <v>500</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="10">D67*3</f>
-        <v>518.25</v>
+        <f t="shared" ref="F67:F130" si="8">D67*3</f>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,24 +2015,23 @@
         <v>0</v>
       </c>
       <c r="B68">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="C68">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="7"/>
         <v>3435</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
-        <v>171.75</v>
+        <v>250</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
-        <v>343.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F68">
-        <f t="shared" si="10"/>
-        <v>515.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,24 +2039,23 @@
         <v>0</v>
       </c>
       <c r="B69">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="7"/>
         <v>3415</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
-        <v>170.75</v>
+        <v>250</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
-        <v>341.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F69">
-        <f t="shared" si="10"/>
-        <v>512.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,24 +2063,23 @@
         <v>0</v>
       </c>
       <c r="B70">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="7"/>
         <v>3395</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
-        <v>169.75</v>
+        <v>250</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
-        <v>339.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F70">
-        <f t="shared" si="10"/>
-        <v>509.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,24 +2087,23 @@
         <v>0</v>
       </c>
       <c r="B71">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="7"/>
         <v>3375</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
-        <v>168.75</v>
+        <v>250</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
-        <v>337.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F71">
-        <f t="shared" si="10"/>
-        <v>506.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,24 +2111,23 @@
         <v>0</v>
       </c>
       <c r="B72">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="7"/>
         <v>3355</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
-        <v>167.75</v>
+        <v>250</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
-        <v>335.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F72">
-        <f t="shared" si="10"/>
-        <v>503.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,24 +2135,23 @@
         <v>0</v>
       </c>
       <c r="B73">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="7"/>
         <v>3335</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
-        <v>166.75</v>
+        <v>250</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
-        <v>333.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F73">
-        <f t="shared" si="10"/>
-        <v>500.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,24 +2159,23 @@
         <v>0</v>
       </c>
       <c r="B74">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="7"/>
         <v>3315</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
-        <v>165.75</v>
+        <v>250</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
-        <v>331.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F74">
-        <f t="shared" si="10"/>
-        <v>497.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,24 +2183,23 @@
         <v>0</v>
       </c>
       <c r="B75">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="7"/>
         <v>3295</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
-        <v>164.75</v>
+        <v>250</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
-        <v>329.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F75">
-        <f t="shared" si="10"/>
-        <v>494.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,24 +2207,23 @@
         <v>0</v>
       </c>
       <c r="B76">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="7"/>
         <v>3275</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
-        <v>163.75</v>
+        <v>250</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
-        <v>327.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F76">
-        <f t="shared" si="10"/>
-        <v>491.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77" si="11">SUM(B76,1)</f>
+        <f t="shared" ref="B77" si="9">SUM(B76,1)</f>
         <v>76</v>
       </c>
       <c r="C77">
@@ -2321,16 +2239,15 @@
         <v>3260</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
-        <v>326</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F77">
-        <f t="shared" si="10"/>
-        <v>489</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,24 +2255,23 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:B101" si="12">SUM(B77,1)</f>
+        <f t="shared" ref="B78:B101" si="10">SUM(B77,1)</f>
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C101" si="13">SUM(C77,-15)</f>
+        <f t="shared" ref="C78:C101" si="11">SUM(C77,-15)</f>
         <v>3245</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
-        <v>162.25</v>
+        <v>250</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
-        <v>324.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F78">
-        <f t="shared" si="10"/>
-        <v>486.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,24 +2279,23 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="C79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3230</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
-        <v>161.5</v>
+        <v>250</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
-        <v>323</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F79">
-        <f t="shared" si="10"/>
-        <v>484.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,24 +2303,23 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="C80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3215</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
-        <v>160.75</v>
+        <v>250</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
-        <v>321.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F80">
-        <f t="shared" si="10"/>
-        <v>482.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,24 +2327,23 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3200</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
-        <v>320</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F81">
-        <f t="shared" si="10"/>
-        <v>480</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,24 +2351,23 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3185</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
-        <v>159.25</v>
+        <v>250</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
-        <v>318.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F82">
-        <f t="shared" si="10"/>
-        <v>477.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,24 +2375,23 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="C83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3170</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
-        <v>158.5</v>
+        <v>250</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
-        <v>317</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F83">
-        <f t="shared" si="10"/>
-        <v>475.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,24 +2399,23 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="C84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3155</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
-        <v>157.75</v>
+        <v>250</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
-        <v>315.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F84">
-        <f t="shared" si="10"/>
-        <v>473.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,24 +2423,23 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="C85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3140</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
-        <v>314</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F85">
-        <f t="shared" si="10"/>
-        <v>471</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2538,24 +2447,23 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="C86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3125</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
-        <v>156.25</v>
+        <v>250</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
-        <v>312.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F86">
-        <f t="shared" si="10"/>
-        <v>468.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,24 +2471,23 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="C87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3110</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
-        <v>155.5</v>
+        <v>250</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
-        <v>311</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F87">
-        <f t="shared" si="10"/>
-        <v>466.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2588,24 +2495,23 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="C88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3095</v>
       </c>
       <c r="D88">
-        <f t="shared" si="8"/>
-        <v>154.75</v>
+        <v>250</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
-        <v>309.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F88">
-        <f t="shared" si="10"/>
-        <v>464.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2613,24 +2519,23 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="C89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3080</v>
       </c>
       <c r="D89">
-        <f t="shared" si="8"/>
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
-        <v>308</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F89">
-        <f t="shared" si="10"/>
-        <v>462</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2638,24 +2543,23 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="C90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3065</v>
       </c>
       <c r="D90">
-        <f t="shared" si="8"/>
-        <v>153.25</v>
+        <v>250</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
-        <v>306.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F90">
-        <f t="shared" si="10"/>
-        <v>459.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2663,24 +2567,23 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="C91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3050</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
-        <v>152.5</v>
+        <v>250</v>
       </c>
       <c r="E91">
-        <f t="shared" si="9"/>
-        <v>305</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F91">
-        <f t="shared" si="10"/>
-        <v>457.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,24 +2591,23 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="C92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3035</v>
       </c>
       <c r="D92">
-        <f t="shared" si="8"/>
-        <v>151.75</v>
+        <v>250</v>
       </c>
       <c r="E92">
-        <f t="shared" si="9"/>
-        <v>303.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F92">
-        <f t="shared" si="10"/>
-        <v>455.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,24 +2615,23 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="C93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3020</v>
       </c>
       <c r="D93">
-        <f t="shared" si="8"/>
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="E93">
-        <f t="shared" si="9"/>
-        <v>302</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F93">
-        <f t="shared" si="10"/>
-        <v>453</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2738,24 +2639,23 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="C94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3005</v>
       </c>
       <c r="D94">
-        <f t="shared" si="8"/>
-        <v>150.25</v>
+        <v>250</v>
       </c>
       <c r="E94">
-        <f t="shared" si="9"/>
-        <v>300.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F94">
-        <f t="shared" si="10"/>
-        <v>450.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,24 +2663,23 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="C95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2990</v>
       </c>
       <c r="D95">
-        <f t="shared" si="8"/>
-        <v>149.5</v>
+        <v>250</v>
       </c>
       <c r="E95">
-        <f t="shared" si="9"/>
-        <v>299</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F95">
-        <f t="shared" si="10"/>
-        <v>448.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,24 +2687,23 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="C96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2975</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
-        <v>148.75</v>
+        <v>250</v>
       </c>
       <c r="E96">
-        <f t="shared" si="9"/>
-        <v>297.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F96">
-        <f t="shared" si="10"/>
-        <v>446.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,24 +2711,23 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2960</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="E97">
-        <f t="shared" si="9"/>
-        <v>296</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F97">
-        <f t="shared" si="10"/>
-        <v>444</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,24 +2735,23 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="C98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2945</v>
       </c>
       <c r="D98">
-        <f t="shared" si="8"/>
-        <v>147.25</v>
+        <v>250</v>
       </c>
       <c r="E98">
-        <f t="shared" si="9"/>
-        <v>294.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F98">
-        <f t="shared" si="10"/>
-        <v>441.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,24 +2759,23 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="C99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2930</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
-        <v>146.5</v>
+        <v>250</v>
       </c>
       <c r="E99">
-        <f t="shared" si="9"/>
-        <v>293</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F99">
-        <f t="shared" si="10"/>
-        <v>439.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,24 +2783,23 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="C100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2915</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
-        <v>145.75</v>
+        <v>250</v>
       </c>
       <c r="E100">
-        <f t="shared" si="9"/>
-        <v>291.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F100">
-        <f t="shared" si="10"/>
-        <v>437.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2913,24 +2807,23 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="C101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2900</v>
       </c>
       <c r="D101">
-        <f t="shared" si="8"/>
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="E101">
-        <f t="shared" si="9"/>
-        <v>290</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F101">
-        <f t="shared" si="10"/>
-        <v>435</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2938,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102" si="14">SUM(B101,1)</f>
+        <f t="shared" ref="B102" si="12">SUM(B101,1)</f>
         <v>101</v>
       </c>
       <c r="C102">
@@ -2946,16 +2839,15 @@
         <v>2890</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
-        <v>144.5</v>
+        <v>250</v>
       </c>
       <c r="E102">
-        <f t="shared" si="9"/>
-        <v>289</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F102">
-        <f t="shared" si="10"/>
-        <v>433.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2963,24 +2855,23 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:B126" si="15">SUM(B102,1)</f>
+        <f t="shared" ref="B103:B126" si="13">SUM(B102,1)</f>
         <v>102</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:C126" si="16">SUM(C102,-10)</f>
+        <f t="shared" ref="C103:C126" si="14">SUM(C102,-10)</f>
         <v>2880</v>
       </c>
       <c r="D103">
-        <f t="shared" si="8"/>
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="E103">
-        <f t="shared" si="9"/>
-        <v>288</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F103">
-        <f t="shared" si="10"/>
-        <v>432</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,24 +2879,23 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>103</v>
       </c>
       <c r="C104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2870</v>
       </c>
       <c r="D104">
-        <f t="shared" si="8"/>
-        <v>143.5</v>
+        <v>250</v>
       </c>
       <c r="E104">
-        <f t="shared" si="9"/>
-        <v>287</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F104">
-        <f t="shared" si="10"/>
-        <v>430.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,24 +2903,23 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>104</v>
       </c>
       <c r="C105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2860</v>
       </c>
       <c r="D105">
-        <f t="shared" si="8"/>
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="E105">
-        <f t="shared" si="9"/>
-        <v>286</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F105">
-        <f t="shared" si="10"/>
-        <v>429</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,24 +2927,23 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="C106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2850</v>
       </c>
       <c r="D106">
-        <f t="shared" si="8"/>
-        <v>142.5</v>
+        <v>250</v>
       </c>
       <c r="E106">
-        <f t="shared" si="9"/>
-        <v>285</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F106">
-        <f t="shared" si="10"/>
-        <v>427.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,24 +2951,23 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>106</v>
       </c>
       <c r="C107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2840</v>
       </c>
       <c r="D107">
-        <f t="shared" si="8"/>
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="E107">
-        <f t="shared" si="9"/>
-        <v>284</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F107">
-        <f t="shared" si="10"/>
-        <v>426</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,24 +2975,23 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="C108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2830</v>
       </c>
       <c r="D108">
-        <f t="shared" si="8"/>
-        <v>141.5</v>
+        <v>250</v>
       </c>
       <c r="E108">
-        <f t="shared" si="9"/>
-        <v>283</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F108">
-        <f t="shared" si="10"/>
-        <v>424.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,24 +2999,23 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="C109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2820</v>
       </c>
       <c r="D109">
-        <f t="shared" si="8"/>
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="E109">
-        <f t="shared" si="9"/>
-        <v>282</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F109">
-        <f t="shared" si="10"/>
-        <v>423</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,24 +3023,23 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>109</v>
       </c>
       <c r="C110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2810</v>
       </c>
       <c r="D110">
-        <f t="shared" si="8"/>
-        <v>140.5</v>
+        <v>250</v>
       </c>
       <c r="E110">
-        <f t="shared" si="9"/>
-        <v>281</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F110">
-        <f t="shared" si="10"/>
-        <v>421.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,24 +3047,23 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="C111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2800</v>
       </c>
       <c r="D111">
-        <f t="shared" si="8"/>
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="E111">
-        <f t="shared" si="9"/>
-        <v>280</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F111">
-        <f t="shared" si="10"/>
-        <v>420</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,24 +3071,23 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
       <c r="C112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2790</v>
       </c>
       <c r="D112">
-        <f t="shared" si="8"/>
-        <v>139.5</v>
+        <v>250</v>
       </c>
       <c r="E112">
-        <f t="shared" si="9"/>
-        <v>279</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F112">
-        <f t="shared" si="10"/>
-        <v>418.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,24 +3095,23 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="C113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2780</v>
       </c>
       <c r="D113">
-        <f t="shared" si="8"/>
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="E113">
-        <f t="shared" si="9"/>
-        <v>278</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F113">
-        <f t="shared" si="10"/>
-        <v>417</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,24 +3119,23 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>113</v>
       </c>
       <c r="C114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2770</v>
       </c>
       <c r="D114">
-        <f t="shared" si="8"/>
-        <v>138.5</v>
+        <v>250</v>
       </c>
       <c r="E114">
-        <f t="shared" si="9"/>
-        <v>277</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F114">
-        <f t="shared" si="10"/>
-        <v>415.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,24 +3143,23 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>114</v>
       </c>
       <c r="C115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2760</v>
       </c>
       <c r="D115">
-        <f t="shared" si="8"/>
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="E115">
-        <f t="shared" si="9"/>
-        <v>276</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F115">
-        <f t="shared" si="10"/>
-        <v>414</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,24 +3167,23 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>115</v>
       </c>
       <c r="C116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2750</v>
       </c>
       <c r="D116">
-        <f t="shared" si="8"/>
-        <v>137.5</v>
+        <v>250</v>
       </c>
       <c r="E116">
-        <f t="shared" si="9"/>
-        <v>275</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F116">
-        <f t="shared" si="10"/>
-        <v>412.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,24 +3191,23 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>116</v>
       </c>
       <c r="C117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2740</v>
       </c>
       <c r="D117">
-        <f t="shared" si="8"/>
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="E117">
-        <f t="shared" si="9"/>
-        <v>274</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F117">
-        <f t="shared" si="10"/>
-        <v>411</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,24 +3215,23 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>117</v>
       </c>
       <c r="C118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2730</v>
       </c>
       <c r="D118">
-        <f t="shared" si="8"/>
-        <v>136.5</v>
+        <v>250</v>
       </c>
       <c r="E118">
-        <f t="shared" si="9"/>
-        <v>273</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F118">
-        <f t="shared" si="10"/>
-        <v>409.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3363,24 +3239,23 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>118</v>
       </c>
       <c r="C119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2720</v>
       </c>
       <c r="D119">
-        <f t="shared" si="8"/>
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="E119">
-        <f t="shared" si="9"/>
-        <v>272</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F119">
-        <f t="shared" si="10"/>
-        <v>408</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,24 +3263,23 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>119</v>
       </c>
       <c r="C120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2710</v>
       </c>
       <c r="D120">
-        <f t="shared" si="8"/>
-        <v>135.5</v>
+        <v>250</v>
       </c>
       <c r="E120">
-        <f t="shared" si="9"/>
-        <v>271</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F120">
-        <f t="shared" si="10"/>
-        <v>406.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3413,24 +3287,23 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>120</v>
       </c>
       <c r="C121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2700</v>
       </c>
       <c r="D121">
-        <f t="shared" si="8"/>
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="E121">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F121">
-        <f t="shared" si="10"/>
-        <v>405</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,24 +3311,23 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>121</v>
       </c>
       <c r="C122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2690</v>
       </c>
       <c r="D122">
-        <f t="shared" si="8"/>
-        <v>134.5</v>
+        <v>250</v>
       </c>
       <c r="E122">
-        <f t="shared" si="9"/>
-        <v>269</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F122">
-        <f t="shared" si="10"/>
-        <v>403.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,24 +3335,23 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>122</v>
       </c>
       <c r="C123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2680</v>
       </c>
       <c r="D123">
-        <f t="shared" si="8"/>
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="E123">
-        <f t="shared" si="9"/>
-        <v>268</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F123">
-        <f t="shared" si="10"/>
-        <v>402</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,24 +3359,23 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>123</v>
       </c>
       <c r="C124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2670</v>
       </c>
       <c r="D124">
-        <f t="shared" si="8"/>
-        <v>133.5</v>
+        <v>250</v>
       </c>
       <c r="E124">
-        <f t="shared" si="9"/>
-        <v>267</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F124">
-        <f t="shared" si="10"/>
-        <v>400.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,24 +3383,23 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>124</v>
       </c>
       <c r="C125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2660</v>
       </c>
       <c r="D125">
-        <f t="shared" si="8"/>
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="E125">
-        <f t="shared" si="9"/>
-        <v>266</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F125">
-        <f t="shared" si="10"/>
-        <v>399</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3538,24 +3407,23 @@
         <v>0</v>
       </c>
       <c r="B126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>125</v>
       </c>
       <c r="C126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2650</v>
       </c>
       <c r="D126">
-        <f t="shared" si="8"/>
-        <v>132.5</v>
+        <v>250</v>
       </c>
       <c r="E126">
-        <f t="shared" si="9"/>
-        <v>265</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F126">
-        <f t="shared" si="10"/>
-        <v>397.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <f t="shared" ref="B127" si="17">SUM(B126,1)</f>
+        <f t="shared" ref="B127" si="15">SUM(B126,1)</f>
         <v>126</v>
       </c>
       <c r="C127">
@@ -3571,16 +3439,15 @@
         <v>2645</v>
       </c>
       <c r="D127">
-        <f t="shared" si="8"/>
-        <v>132.25</v>
+        <v>250</v>
       </c>
       <c r="E127">
-        <f t="shared" si="9"/>
-        <v>264.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F127">
-        <f t="shared" si="10"/>
-        <v>396.75</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,24 +3455,23 @@
         <v>0</v>
       </c>
       <c r="B128">
-        <f t="shared" ref="B128:B152" si="18">SUM(B127,1)</f>
+        <f t="shared" ref="B128:B152" si="16">SUM(B127,1)</f>
         <v>127</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:C151" si="19">SUM(C127,-5)</f>
+        <f t="shared" ref="C128:C151" si="17">SUM(C127,-5)</f>
         <v>2640</v>
       </c>
       <c r="D128">
-        <f t="shared" si="8"/>
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="E128">
-        <f t="shared" si="9"/>
-        <v>264</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F128">
-        <f t="shared" si="10"/>
-        <v>396</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,24 +3479,23 @@
         <v>0</v>
       </c>
       <c r="B129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="C129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2635</v>
       </c>
       <c r="D129">
-        <f t="shared" si="8"/>
-        <v>131.75</v>
+        <v>250</v>
       </c>
       <c r="E129">
-        <f t="shared" si="9"/>
-        <v>263.5</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F129">
-        <f t="shared" si="10"/>
-        <v>395.25</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,24 +3503,23 @@
         <v>0</v>
       </c>
       <c r="B130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>129</v>
       </c>
       <c r="C130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2630</v>
       </c>
       <c r="D130">
-        <f t="shared" si="8"/>
-        <v>131.5</v>
+        <v>250</v>
       </c>
       <c r="E130">
-        <f t="shared" si="9"/>
-        <v>263</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F130">
-        <f t="shared" si="10"/>
-        <v>394.5</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3663,24 +3527,23 @@
         <v>0</v>
       </c>
       <c r="B131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>130</v>
       </c>
       <c r="C131">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2625</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="20">C131/10/2</f>
-        <v>131.25</v>
+        <v>250</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="21">D131*2</f>
-        <v>262.5</v>
+        <f t="shared" ref="E131:E194" si="18">D131*2</f>
+        <v>500</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="22">D131*3</f>
-        <v>393.75</v>
+        <f t="shared" ref="F131:F194" si="19">D131*3</f>
+        <v>750</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,24 +3551,23 @@
         <v>0</v>
       </c>
       <c r="B132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>131</v>
       </c>
       <c r="C132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2620</v>
       </c>
       <c r="D132">
-        <f t="shared" si="20"/>
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="E132">
-        <f t="shared" si="21"/>
-        <v>262</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F132">
-        <f t="shared" si="22"/>
-        <v>393</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3713,24 +3575,23 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="C133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2615</v>
       </c>
       <c r="D133">
-        <f t="shared" si="20"/>
-        <v>130.75</v>
+        <v>250</v>
       </c>
       <c r="E133">
-        <f t="shared" si="21"/>
-        <v>261.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F133">
-        <f t="shared" si="22"/>
-        <v>392.25</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,24 +3599,23 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>133</v>
       </c>
       <c r="C134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2610</v>
       </c>
       <c r="D134">
-        <f t="shared" si="20"/>
-        <v>130.5</v>
+        <v>250</v>
       </c>
       <c r="E134">
-        <f t="shared" si="21"/>
-        <v>261</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F134">
-        <f t="shared" si="22"/>
-        <v>391.5</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,24 +3623,23 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>134</v>
       </c>
       <c r="C135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2605</v>
       </c>
       <c r="D135">
-        <f t="shared" si="20"/>
-        <v>130.25</v>
+        <v>250</v>
       </c>
       <c r="E135">
-        <f t="shared" si="21"/>
-        <v>260.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F135">
-        <f t="shared" si="22"/>
-        <v>390.75</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3788,24 +3647,23 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="C136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2600</v>
       </c>
       <c r="D136">
-        <f t="shared" si="20"/>
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="E136">
-        <f t="shared" si="21"/>
-        <v>260</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F136">
-        <f t="shared" si="22"/>
-        <v>390</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3813,24 +3671,23 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="C137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2595</v>
       </c>
       <c r="D137">
-        <f t="shared" si="20"/>
-        <v>129.75</v>
+        <v>250</v>
       </c>
       <c r="E137">
-        <f t="shared" si="21"/>
-        <v>259.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F137">
-        <f t="shared" si="22"/>
-        <v>389.25</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3838,24 +3695,23 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>137</v>
       </c>
       <c r="C138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2590</v>
       </c>
       <c r="D138">
-        <f t="shared" si="20"/>
-        <v>129.5</v>
+        <v>250</v>
       </c>
       <c r="E138">
-        <f t="shared" si="21"/>
-        <v>259</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F138">
-        <f t="shared" si="22"/>
-        <v>388.5</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,24 +3719,23 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="C139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2585</v>
       </c>
       <c r="D139">
-        <f t="shared" si="20"/>
-        <v>129.25</v>
+        <v>250</v>
       </c>
       <c r="E139">
-        <f t="shared" si="21"/>
-        <v>258.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F139">
-        <f t="shared" si="22"/>
-        <v>387.75</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3888,24 +3743,23 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>139</v>
       </c>
       <c r="C140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2580</v>
       </c>
       <c r="D140">
-        <f t="shared" si="20"/>
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="E140">
-        <f t="shared" si="21"/>
-        <v>258</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F140">
-        <f t="shared" si="22"/>
-        <v>387</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3913,24 +3767,23 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>140</v>
       </c>
       <c r="C141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2575</v>
       </c>
       <c r="D141">
-        <f t="shared" si="20"/>
-        <v>128.75</v>
+        <v>250</v>
       </c>
       <c r="E141">
-        <f t="shared" si="21"/>
-        <v>257.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F141">
-        <f t="shared" si="22"/>
-        <v>386.25</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,24 +3791,23 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>141</v>
       </c>
       <c r="C142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2570</v>
       </c>
       <c r="D142">
-        <f t="shared" si="20"/>
-        <v>128.5</v>
+        <v>250</v>
       </c>
       <c r="E142">
-        <f t="shared" si="21"/>
-        <v>257</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F142">
-        <f t="shared" si="22"/>
-        <v>385.5</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,24 +3815,23 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>142</v>
       </c>
       <c r="C143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2565</v>
       </c>
       <c r="D143">
-        <f t="shared" si="20"/>
-        <v>128.25</v>
+        <v>250</v>
       </c>
       <c r="E143">
-        <f t="shared" si="21"/>
-        <v>256.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F143">
-        <f t="shared" si="22"/>
-        <v>384.75</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,24 +3839,23 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>143</v>
       </c>
       <c r="C144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2560</v>
       </c>
       <c r="D144">
-        <f t="shared" si="20"/>
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="E144">
-        <f t="shared" si="21"/>
-        <v>256</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F144">
-        <f t="shared" si="22"/>
-        <v>384</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4013,24 +3863,23 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
       <c r="C145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2555</v>
       </c>
       <c r="D145">
-        <f t="shared" si="20"/>
-        <v>127.75</v>
+        <v>250</v>
       </c>
       <c r="E145">
-        <f t="shared" si="21"/>
-        <v>255.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F145">
-        <f t="shared" si="22"/>
-        <v>383.25</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,24 +3887,23 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>145</v>
       </c>
       <c r="C146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2550</v>
       </c>
       <c r="D146">
-        <f t="shared" si="20"/>
-        <v>127.5</v>
+        <v>250</v>
       </c>
       <c r="E146">
-        <f t="shared" si="21"/>
-        <v>255</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F146">
-        <f t="shared" si="22"/>
-        <v>382.5</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,24 +3911,23 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>146</v>
       </c>
       <c r="C147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2545</v>
       </c>
       <c r="D147">
-        <f t="shared" si="20"/>
-        <v>127.25</v>
+        <v>250</v>
       </c>
       <c r="E147">
-        <f t="shared" si="21"/>
-        <v>254.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F147">
-        <f t="shared" si="22"/>
-        <v>381.75</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4088,24 +3935,23 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>147</v>
       </c>
       <c r="C148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2540</v>
       </c>
       <c r="D148">
-        <f t="shared" si="20"/>
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="E148">
-        <f t="shared" si="21"/>
-        <v>254</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F148">
-        <f t="shared" si="22"/>
-        <v>381</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,24 +3959,23 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="C149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2535</v>
       </c>
       <c r="D149">
-        <f t="shared" si="20"/>
-        <v>126.75</v>
+        <v>250</v>
       </c>
       <c r="E149">
-        <f t="shared" si="21"/>
-        <v>253.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F149">
-        <f t="shared" si="22"/>
-        <v>380.25</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,24 +3983,23 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="C150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2530</v>
       </c>
       <c r="D150">
-        <f t="shared" si="20"/>
-        <v>126.5</v>
+        <v>250</v>
       </c>
       <c r="E150">
-        <f t="shared" si="21"/>
-        <v>253</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F150">
-        <f t="shared" si="22"/>
-        <v>379.5</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4163,24 +4007,23 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="C151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2525</v>
       </c>
       <c r="D151">
-        <f t="shared" si="20"/>
-        <v>126.25</v>
+        <v>250</v>
       </c>
       <c r="E151">
-        <f t="shared" si="21"/>
-        <v>252.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F151">
-        <f t="shared" si="22"/>
-        <v>378.75</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4188,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="C152">
@@ -4196,16 +4039,15 @@
         <v>2520</v>
       </c>
       <c r="D152">
-        <f t="shared" si="20"/>
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="E152">
-        <f t="shared" si="21"/>
-        <v>252</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F152">
-        <f t="shared" si="22"/>
-        <v>378</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4213,24 +4055,23 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <f t="shared" ref="B153:B154" si="23">SUM(B152,1)</f>
+        <f t="shared" ref="B153:B154" si="20">SUM(B152,1)</f>
         <v>152</v>
       </c>
       <c r="C153">
-        <f t="shared" ref="C153:C154" si="24">SUM(C152,-5)</f>
+        <f t="shared" ref="C153:C154" si="21">SUM(C152,-5)</f>
         <v>2515</v>
       </c>
       <c r="D153">
-        <f t="shared" si="20"/>
-        <v>125.75</v>
+        <v>250</v>
       </c>
       <c r="E153">
-        <f t="shared" si="21"/>
-        <v>251.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F153">
-        <f t="shared" si="22"/>
-        <v>377.25</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4238,24 +4079,23 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="C154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>2510</v>
       </c>
       <c r="D154">
-        <f t="shared" si="20"/>
-        <v>125.5</v>
+        <v>250</v>
       </c>
       <c r="E154">
-        <f t="shared" si="21"/>
-        <v>251</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F154">
-        <f t="shared" si="22"/>
-        <v>376.5</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4263,24 +4103,23 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <f t="shared" ref="B155:B157" si="25">SUM(B154,1)</f>
+        <f t="shared" ref="B155:B157" si="22">SUM(B154,1)</f>
         <v>154</v>
       </c>
       <c r="C155">
-        <f t="shared" ref="C155" si="26">SUM(C154,-5)</f>
+        <f t="shared" ref="C155" si="23">SUM(C154,-5)</f>
         <v>2505</v>
       </c>
       <c r="D155">
-        <f t="shared" si="20"/>
-        <v>125.25</v>
+        <v>250</v>
       </c>
       <c r="E155">
-        <f t="shared" si="21"/>
-        <v>250.5</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F155">
-        <f t="shared" si="22"/>
-        <v>375.75</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4288,23 +4127,22 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>155</v>
       </c>
       <c r="C156">
         <v>2500</v>
       </c>
       <c r="D156">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E156">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F156">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,23 +4150,22 @@
         <v>0</v>
       </c>
       <c r="B157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>156</v>
       </c>
       <c r="C157">
         <v>2500</v>
       </c>
       <c r="D157">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E157">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F157">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,23 +4173,22 @@
         <v>0</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:B201" si="27">SUM(B157,1)</f>
+        <f t="shared" ref="B158:B201" si="24">SUM(B157,1)</f>
         <v>157</v>
       </c>
       <c r="C158">
         <v>2500</v>
       </c>
       <c r="D158">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E158">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F158">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4360,23 +4196,22 @@
         <v>0</v>
       </c>
       <c r="B159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>158</v>
       </c>
       <c r="C159">
         <v>2500</v>
       </c>
       <c r="D159">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E159">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F159">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,23 +4219,22 @@
         <v>0</v>
       </c>
       <c r="B160">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>159</v>
       </c>
       <c r="C160">
         <v>2500</v>
       </c>
       <c r="D160">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E160">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F160">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,23 +4242,22 @@
         <v>0</v>
       </c>
       <c r="B161">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>160</v>
       </c>
       <c r="C161">
         <v>2500</v>
       </c>
       <c r="D161">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E161">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F161">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,23 +4265,22 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>161</v>
       </c>
       <c r="C162">
         <v>2500</v>
       </c>
       <c r="D162">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E162">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F162">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,23 +4288,22 @@
         <v>0</v>
       </c>
       <c r="B163">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>162</v>
       </c>
       <c r="C163">
         <v>2500</v>
       </c>
       <c r="D163">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E163">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F163">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4480,23 +4311,22 @@
         <v>0</v>
       </c>
       <c r="B164">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>163</v>
       </c>
       <c r="C164">
         <v>2500</v>
       </c>
       <c r="D164">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E164">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F164">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,23 +4334,22 @@
         <v>0</v>
       </c>
       <c r="B165">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>164</v>
       </c>
       <c r="C165">
         <v>2500</v>
       </c>
       <c r="D165">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E165">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F165">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,23 +4357,22 @@
         <v>0</v>
       </c>
       <c r="B166">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>165</v>
       </c>
       <c r="C166">
         <v>2500</v>
       </c>
       <c r="D166">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E166">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F166">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,23 +4380,22 @@
         <v>0</v>
       </c>
       <c r="B167">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>166</v>
       </c>
       <c r="C167">
         <v>2500</v>
       </c>
       <c r="D167">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E167">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F167">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,23 +4403,22 @@
         <v>0</v>
       </c>
       <c r="B168">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>167</v>
       </c>
       <c r="C168">
         <v>2500</v>
       </c>
       <c r="D168">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E168">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F168">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,23 +4426,22 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>168</v>
       </c>
       <c r="C169">
         <v>2500</v>
       </c>
       <c r="D169">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E169">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F169">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,23 +4449,22 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>169</v>
       </c>
       <c r="C170">
         <v>2500</v>
       </c>
       <c r="D170">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E170">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F170">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,23 +4472,22 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>170</v>
       </c>
       <c r="C171">
         <v>2500</v>
       </c>
       <c r="D171">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E171">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F171">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,23 +4495,22 @@
         <v>0</v>
       </c>
       <c r="B172">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>171</v>
       </c>
       <c r="C172">
         <v>2500</v>
       </c>
       <c r="D172">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E172">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F172">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,23 +4518,22 @@
         <v>0</v>
       </c>
       <c r="B173">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="C173">
         <v>2500</v>
       </c>
       <c r="D173">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E173">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F173">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,23 +4541,22 @@
         <v>0</v>
       </c>
       <c r="B174">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>173</v>
       </c>
       <c r="C174">
         <v>2500</v>
       </c>
       <c r="D174">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E174">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F174">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,23 +4564,22 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>174</v>
       </c>
       <c r="C175">
         <v>2500</v>
       </c>
       <c r="D175">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E175">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F175">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,23 +4587,22 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>175</v>
       </c>
       <c r="C176">
         <v>2500</v>
       </c>
       <c r="D176">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E176">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F176">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,23 +4610,22 @@
         <v>0</v>
       </c>
       <c r="B177">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>176</v>
       </c>
       <c r="C177">
         <v>2500</v>
       </c>
       <c r="D177">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E177">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F177">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4816,23 +4633,22 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>177</v>
       </c>
       <c r="C178">
         <v>2500</v>
       </c>
       <c r="D178">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E178">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F178">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,23 +4656,22 @@
         <v>0</v>
       </c>
       <c r="B179">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>178</v>
       </c>
       <c r="C179">
         <v>2500</v>
       </c>
       <c r="D179">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E179">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F179">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,23 +4679,22 @@
         <v>0</v>
       </c>
       <c r="B180">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>179</v>
       </c>
       <c r="C180">
         <v>2500</v>
       </c>
       <c r="D180">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E180">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F180">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4888,23 +4702,22 @@
         <v>0</v>
       </c>
       <c r="B181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="C181">
         <v>2500</v>
       </c>
       <c r="D181">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E181">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F181">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,23 +4725,22 @@
         <v>0</v>
       </c>
       <c r="B182">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>181</v>
       </c>
       <c r="C182">
         <v>2500</v>
       </c>
       <c r="D182">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E182">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F182">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4936,23 +4748,22 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>182</v>
       </c>
       <c r="C183">
         <v>2500</v>
       </c>
       <c r="D183">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E183">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F183">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4960,23 +4771,22 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>183</v>
       </c>
       <c r="C184">
         <v>2500</v>
       </c>
       <c r="D184">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E184">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F184">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,23 +4794,22 @@
         <v>0</v>
       </c>
       <c r="B185">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>184</v>
       </c>
       <c r="C185">
         <v>2500</v>
       </c>
       <c r="D185">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E185">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F185">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5008,23 +4817,22 @@
         <v>0</v>
       </c>
       <c r="B186">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>185</v>
       </c>
       <c r="C186">
         <v>2500</v>
       </c>
       <c r="D186">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E186">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F186">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5032,23 +4840,22 @@
         <v>0</v>
       </c>
       <c r="B187">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>186</v>
       </c>
       <c r="C187">
         <v>2500</v>
       </c>
       <c r="D187">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E187">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F187">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5056,23 +4863,22 @@
         <v>0</v>
       </c>
       <c r="B188">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>187</v>
       </c>
       <c r="C188">
         <v>2500</v>
       </c>
       <c r="D188">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E188">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F188">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5080,23 +4886,22 @@
         <v>0</v>
       </c>
       <c r="B189">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>188</v>
       </c>
       <c r="C189">
         <v>2500</v>
       </c>
       <c r="D189">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E189">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F189">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,23 +4909,22 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>189</v>
       </c>
       <c r="C190">
         <v>2500</v>
       </c>
       <c r="D190">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E190">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F190">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5128,23 +4932,22 @@
         <v>0</v>
       </c>
       <c r="B191">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>190</v>
       </c>
       <c r="C191">
         <v>2500</v>
       </c>
       <c r="D191">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E191">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F191">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5152,23 +4955,22 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>191</v>
       </c>
       <c r="C192">
         <v>2500</v>
       </c>
       <c r="D192">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E192">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F192">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,23 +4978,22 @@
         <v>0</v>
       </c>
       <c r="B193">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>192</v>
       </c>
       <c r="C193">
         <v>2500</v>
       </c>
       <c r="D193">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E193">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F193">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,23 +5001,22 @@
         <v>0</v>
       </c>
       <c r="B194">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>193</v>
       </c>
       <c r="C194">
         <v>2500</v>
       </c>
       <c r="D194">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E194">
-        <f t="shared" si="21"/>
-        <v>250</v>
+        <f t="shared" si="18"/>
+        <v>500</v>
       </c>
       <c r="F194">
-        <f t="shared" si="22"/>
-        <v>375</v>
+        <f t="shared" si="19"/>
+        <v>750</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5224,23 +5024,22 @@
         <v>0</v>
       </c>
       <c r="B195">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>194</v>
       </c>
       <c r="C195">
         <v>2500</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D201" si="28">C195/10/2</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E201" si="29">D195*2</f>
-        <v>250</v>
+        <f t="shared" ref="E195:E201" si="25">D195*2</f>
+        <v>500</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F201" si="30">D195*3</f>
-        <v>375</v>
+        <f t="shared" ref="F195:F201" si="26">D195*3</f>
+        <v>750</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5248,23 +5047,22 @@
         <v>0</v>
       </c>
       <c r="B196">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>195</v>
       </c>
       <c r="C196">
         <v>2500</v>
       </c>
       <c r="D196">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E196">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="F196">
-        <f t="shared" si="30"/>
-        <v>375</v>
+        <f t="shared" si="26"/>
+        <v>750</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,23 +5070,22 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>196</v>
       </c>
       <c r="C197">
         <v>2500</v>
       </c>
       <c r="D197">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E197">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="F197">
-        <f t="shared" si="30"/>
-        <v>375</v>
+        <f t="shared" si="26"/>
+        <v>750</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5296,23 +5093,22 @@
         <v>0</v>
       </c>
       <c r="B198">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>197</v>
       </c>
       <c r="C198">
         <v>2500</v>
       </c>
       <c r="D198">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E198">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="F198">
-        <f t="shared" si="30"/>
-        <v>375</v>
+        <f t="shared" si="26"/>
+        <v>750</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,23 +5116,22 @@
         <v>0</v>
       </c>
       <c r="B199">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>198</v>
       </c>
       <c r="C199">
         <v>2500</v>
       </c>
       <c r="D199">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E199">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="F199">
-        <f t="shared" si="30"/>
-        <v>375</v>
+        <f t="shared" si="26"/>
+        <v>750</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,23 +5139,22 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>199</v>
       </c>
       <c r="C200">
         <v>2500</v>
       </c>
       <c r="D200">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E200">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="F200">
-        <f t="shared" si="30"/>
-        <v>375</v>
+        <f t="shared" si="26"/>
+        <v>750</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,23 +5162,22 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="C201">
         <v>2500</v>
       </c>
       <c r="D201">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E201">
-        <f t="shared" si="29"/>
-        <v>250</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="F201">
-        <f t="shared" si="30"/>
-        <v>375</v>
+        <f t="shared" si="26"/>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Currency.xlsx
+++ b/Database/Currency.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -459,8 +459,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>SUM(C2,-25)</f>
-        <v>4975</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>250</v>
@@ -483,8 +482,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C51" si="3">SUM(C3,-25)</f>
-        <v>4950</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>250</v>
@@ -507,8 +505,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
-        <v>4925</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>250</v>
@@ -531,8 +528,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
-        <v>4900</v>
+        <v>500</v>
       </c>
       <c r="D6">
         <v>250</v>
@@ -555,8 +551,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" si="3"/>
-        <v>4875</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>250</v>
@@ -579,8 +574,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="3"/>
-        <v>4850</v>
+        <v>500</v>
       </c>
       <c r="D8">
         <v>250</v>
@@ -603,8 +597,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
-        <v>4825</v>
+        <v>500</v>
       </c>
       <c r="D9">
         <v>250</v>
@@ -627,8 +620,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="D10">
         <v>250</v>
@@ -651,8 +643,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
-        <v>4775</v>
+        <v>500</v>
       </c>
       <c r="D11">
         <v>250</v>
@@ -675,8 +666,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
-        <v>4750</v>
+        <v>500</v>
       </c>
       <c r="D12">
         <v>250</v>
@@ -699,8 +689,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
-        <v>4725</v>
+        <v>500</v>
       </c>
       <c r="D13">
         <v>250</v>
@@ -723,8 +712,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="D14">
         <v>250</v>
@@ -747,8 +735,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
-        <v>4675</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>250</v>
@@ -771,8 +758,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
-        <v>4650</v>
+        <v>500</v>
       </c>
       <c r="D16">
         <v>250</v>
@@ -795,8 +781,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
-        <v>4625</v>
+        <v>500</v>
       </c>
       <c r="D17">
         <v>250</v>
@@ -819,8 +804,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
-        <v>4600</v>
+        <v>500</v>
       </c>
       <c r="D18">
         <v>250</v>
@@ -843,8 +827,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
-        <v>4575</v>
+        <v>500</v>
       </c>
       <c r="D19">
         <v>250</v>
@@ -867,8 +850,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
-        <v>4550</v>
+        <v>500</v>
       </c>
       <c r="D20">
         <v>250</v>
@@ -891,8 +873,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
-        <v>4525</v>
+        <v>500</v>
       </c>
       <c r="D21">
         <v>250</v>
@@ -915,8 +896,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="D22">
         <v>250</v>
@@ -939,8 +919,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
-        <v>4475</v>
+        <v>500</v>
       </c>
       <c r="D23">
         <v>250</v>
@@ -963,8 +942,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
-        <v>4450</v>
+        <v>500</v>
       </c>
       <c r="D24">
         <v>250</v>
@@ -987,8 +965,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
-        <v>4425</v>
+        <v>500</v>
       </c>
       <c r="D25">
         <v>250</v>
@@ -1011,8 +988,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
-        <v>4400</v>
+        <v>500</v>
       </c>
       <c r="D26">
         <v>250</v>
@@ -1035,8 +1011,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
-        <v>4375</v>
+        <v>500</v>
       </c>
       <c r="D27">
         <v>250</v>
@@ -1059,8 +1034,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
-        <v>4350</v>
+        <v>500</v>
       </c>
       <c r="D28">
         <v>250</v>
@@ -1083,8 +1057,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
-        <v>4325</v>
+        <v>500</v>
       </c>
       <c r="D29">
         <v>250</v>
@@ -1107,8 +1080,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
-        <v>4300</v>
+        <v>500</v>
       </c>
       <c r="D30">
         <v>250</v>
@@ -1131,8 +1103,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
-        <v>4275</v>
+        <v>500</v>
       </c>
       <c r="D31">
         <v>250</v>
@@ -1155,8 +1126,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
-        <v>4250</v>
+        <v>500</v>
       </c>
       <c r="D32">
         <v>250</v>
@@ -1179,8 +1149,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
-        <v>4225</v>
+        <v>500</v>
       </c>
       <c r="D33">
         <v>250</v>
@@ -1203,8 +1172,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
-        <v>4200</v>
+        <v>500</v>
       </c>
       <c r="D34">
         <v>250</v>
@@ -1227,8 +1195,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>4175</v>
+        <v>500</v>
       </c>
       <c r="D35">
         <v>250</v>
@@ -1251,8 +1218,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>4150</v>
+        <v>500</v>
       </c>
       <c r="D36">
         <v>250</v>
@@ -1275,8 +1241,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>4125</v>
+        <v>500</v>
       </c>
       <c r="D37">
         <v>250</v>
@@ -1299,8 +1264,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>4100</v>
+        <v>500</v>
       </c>
       <c r="D38">
         <v>250</v>
@@ -1323,8 +1287,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
-        <v>4075</v>
+        <v>500</v>
       </c>
       <c r="D39">
         <v>250</v>
@@ -1347,8 +1310,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
-        <v>4050</v>
+        <v>500</v>
       </c>
       <c r="D40">
         <v>250</v>
@@ -1371,8 +1333,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
-        <v>4025</v>
+        <v>500</v>
       </c>
       <c r="D41">
         <v>250</v>
@@ -1395,8 +1356,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="D42">
         <v>250</v>
@@ -1419,8 +1379,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
-        <v>3975</v>
+        <v>500</v>
       </c>
       <c r="D43">
         <v>250</v>
@@ -1443,8 +1402,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
-        <v>3950</v>
+        <v>500</v>
       </c>
       <c r="D44">
         <v>250</v>
@@ -1467,8 +1425,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
-        <v>3925</v>
+        <v>500</v>
       </c>
       <c r="D45">
         <v>250</v>
@@ -1491,8 +1448,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
-        <v>3900</v>
+        <v>500</v>
       </c>
       <c r="D46">
         <v>250</v>
@@ -1515,8 +1471,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
-        <v>3875</v>
+        <v>500</v>
       </c>
       <c r="D47">
         <v>250</v>
@@ -1539,8 +1494,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
-        <v>3850</v>
+        <v>500</v>
       </c>
       <c r="D48">
         <v>250</v>
@@ -1563,8 +1517,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
-        <v>3825</v>
+        <v>500</v>
       </c>
       <c r="D49">
         <v>250</v>
@@ -1587,8 +1540,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="D50">
         <v>250</v>
@@ -1611,8 +1563,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
-        <v>3775</v>
+        <v>500</v>
       </c>
       <c r="D51">
         <v>250</v>
@@ -1631,12 +1582,11 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="4">SUM(B51,1)</f>
+        <f t="shared" ref="B52" si="3">SUM(B51,1)</f>
         <v>51</v>
       </c>
       <c r="C52">
-        <f>SUM(C51,-20)</f>
-        <v>3755</v>
+        <v>500</v>
       </c>
       <c r="D52">
         <v>250</v>
@@ -1655,12 +1605,11 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B76" si="5">SUM(B52,1)</f>
+        <f t="shared" ref="B53:B76" si="4">SUM(B52,1)</f>
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:C76" si="6">SUM(C52,-20)</f>
-        <v>3735</v>
+        <v>500</v>
       </c>
       <c r="D53">
         <v>250</v>
@@ -1679,12 +1628,11 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C54">
-        <f t="shared" si="6"/>
-        <v>3715</v>
+        <v>500</v>
       </c>
       <c r="D54">
         <v>250</v>
@@ -1703,12 +1651,11 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="6"/>
-        <v>3695</v>
+        <v>500</v>
       </c>
       <c r="D55">
         <v>250</v>
@@ -1727,12 +1674,11 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="C56">
-        <f t="shared" si="6"/>
-        <v>3675</v>
+        <v>500</v>
       </c>
       <c r="D56">
         <v>250</v>
@@ -1751,12 +1697,11 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="6"/>
-        <v>3655</v>
+        <v>500</v>
       </c>
       <c r="D57">
         <v>250</v>
@@ -1775,12 +1720,11 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="6"/>
-        <v>3635</v>
+        <v>500</v>
       </c>
       <c r="D58">
         <v>250</v>
@@ -1799,12 +1743,11 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="C59">
-        <f t="shared" si="6"/>
-        <v>3615</v>
+        <v>500</v>
       </c>
       <c r="D59">
         <v>250</v>
@@ -1823,12 +1766,11 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="6"/>
-        <v>3595</v>
+        <v>500</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -1847,12 +1789,11 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C61">
-        <f t="shared" si="6"/>
-        <v>3575</v>
+        <v>500</v>
       </c>
       <c r="D61">
         <v>250</v>
@@ -1871,12 +1812,11 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="6"/>
-        <v>3555</v>
+        <v>500</v>
       </c>
       <c r="D62">
         <v>250</v>
@@ -1895,12 +1835,11 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="6"/>
-        <v>3535</v>
+        <v>500</v>
       </c>
       <c r="D63">
         <v>250</v>
@@ -1919,12 +1858,11 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="6"/>
-        <v>3515</v>
+        <v>500</v>
       </c>
       <c r="D64">
         <v>250</v>
@@ -1943,12 +1881,11 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="6"/>
-        <v>3495</v>
+        <v>500</v>
       </c>
       <c r="D65">
         <v>250</v>
@@ -1967,12 +1904,11 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="6"/>
-        <v>3475</v>
+        <v>500</v>
       </c>
       <c r="D66">
         <v>250</v>
@@ -1991,22 +1927,21 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" si="6"/>
-        <v>3455</v>
+        <v>500</v>
       </c>
       <c r="D67">
         <v>250</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="7">D67*2</f>
+        <f t="shared" ref="E67:E130" si="5">D67*2</f>
         <v>500</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="8">D67*3</f>
+        <f t="shared" ref="F67:F130" si="6">D67*3</f>
         <v>750</v>
       </c>
     </row>
@@ -2015,22 +1950,21 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" si="6"/>
-        <v>3435</v>
+        <v>500</v>
       </c>
       <c r="D68">
         <v>250</v>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2039,22 +1973,21 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C69">
-        <f t="shared" si="6"/>
-        <v>3415</v>
+        <v>500</v>
       </c>
       <c r="D69">
         <v>250</v>
       </c>
       <c r="E69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2063,22 +1996,21 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="C70">
-        <f t="shared" si="6"/>
-        <v>3395</v>
+        <v>500</v>
       </c>
       <c r="D70">
         <v>250</v>
       </c>
       <c r="E70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2087,22 +2019,21 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C71">
-        <f t="shared" si="6"/>
-        <v>3375</v>
+        <v>500</v>
       </c>
       <c r="D71">
         <v>250</v>
       </c>
       <c r="E71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2111,22 +2042,21 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="C72">
-        <f t="shared" si="6"/>
-        <v>3355</v>
+        <v>500</v>
       </c>
       <c r="D72">
         <v>250</v>
       </c>
       <c r="E72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2135,22 +2065,21 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
-        <v>3335</v>
+        <v>500</v>
       </c>
       <c r="D73">
         <v>250</v>
       </c>
       <c r="E73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2159,22 +2088,21 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
-        <v>3315</v>
+        <v>500</v>
       </c>
       <c r="D74">
         <v>250</v>
       </c>
       <c r="E74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2183,22 +2111,21 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
-        <v>3295</v>
+        <v>500</v>
       </c>
       <c r="D75">
         <v>250</v>
       </c>
       <c r="E75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2207,22 +2134,21 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
-        <v>3275</v>
+        <v>500</v>
       </c>
       <c r="D76">
         <v>250</v>
       </c>
       <c r="E76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2231,22 +2157,21 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77" si="9">SUM(B76,1)</f>
+        <f t="shared" ref="B77" si="7">SUM(B76,1)</f>
         <v>76</v>
       </c>
       <c r="C77">
-        <f>SUM(C76,-15)</f>
-        <v>3260</v>
+        <v>500</v>
       </c>
       <c r="D77">
         <v>250</v>
       </c>
       <c r="E77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2255,22 +2180,21 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:B101" si="10">SUM(B77,1)</f>
+        <f t="shared" ref="B78:B101" si="8">SUM(B77,1)</f>
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C101" si="11">SUM(C77,-15)</f>
-        <v>3245</v>
+        <v>500</v>
       </c>
       <c r="D78">
         <v>250</v>
       </c>
       <c r="E78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2279,22 +2203,21 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
-        <v>3230</v>
+        <v>500</v>
       </c>
       <c r="D79">
         <v>250</v>
       </c>
       <c r="E79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2303,22 +2226,21 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="C80">
-        <f t="shared" si="11"/>
-        <v>3215</v>
+        <v>500</v>
       </c>
       <c r="D80">
         <v>250</v>
       </c>
       <c r="E80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2327,22 +2249,21 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="C81">
-        <f t="shared" si="11"/>
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="D81">
         <v>250</v>
       </c>
       <c r="E81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2351,22 +2272,21 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="shared" si="11"/>
-        <v>3185</v>
+        <v>500</v>
       </c>
       <c r="D82">
         <v>250</v>
       </c>
       <c r="E82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2375,22 +2295,21 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="C83">
-        <f t="shared" si="11"/>
-        <v>3170</v>
+        <v>500</v>
       </c>
       <c r="D83">
         <v>250</v>
       </c>
       <c r="E83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2399,22 +2318,21 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="C84">
-        <f t="shared" si="11"/>
-        <v>3155</v>
+        <v>500</v>
       </c>
       <c r="D84">
         <v>250</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2423,22 +2341,21 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="C85">
-        <f t="shared" si="11"/>
-        <v>3140</v>
+        <v>500</v>
       </c>
       <c r="D85">
         <v>250</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2447,22 +2364,21 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="C86">
-        <f t="shared" si="11"/>
-        <v>3125</v>
+        <v>500</v>
       </c>
       <c r="D86">
         <v>250</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2471,22 +2387,21 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="C87">
-        <f t="shared" si="11"/>
-        <v>3110</v>
+        <v>500</v>
       </c>
       <c r="D87">
         <v>250</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2495,22 +2410,21 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="C88">
-        <f t="shared" si="11"/>
-        <v>3095</v>
+        <v>500</v>
       </c>
       <c r="D88">
         <v>250</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2519,22 +2433,21 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="C89">
-        <f t="shared" si="11"/>
-        <v>3080</v>
+        <v>500</v>
       </c>
       <c r="D89">
         <v>250</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2543,22 +2456,21 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="C90">
-        <f t="shared" si="11"/>
-        <v>3065</v>
+        <v>500</v>
       </c>
       <c r="D90">
         <v>250</v>
       </c>
       <c r="E90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2567,22 +2479,21 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="C91">
-        <f t="shared" si="11"/>
-        <v>3050</v>
+        <v>500</v>
       </c>
       <c r="D91">
         <v>250</v>
       </c>
       <c r="E91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2591,22 +2502,21 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="C92">
-        <f t="shared" si="11"/>
-        <v>3035</v>
+        <v>500</v>
       </c>
       <c r="D92">
         <v>250</v>
       </c>
       <c r="E92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2615,22 +2525,21 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="C93">
-        <f t="shared" si="11"/>
-        <v>3020</v>
+        <v>500</v>
       </c>
       <c r="D93">
         <v>250</v>
       </c>
       <c r="E93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2639,22 +2548,21 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="C94">
-        <f t="shared" si="11"/>
-        <v>3005</v>
+        <v>500</v>
       </c>
       <c r="D94">
         <v>250</v>
       </c>
       <c r="E94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2663,22 +2571,21 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="C95">
-        <f t="shared" si="11"/>
-        <v>2990</v>
+        <v>500</v>
       </c>
       <c r="D95">
         <v>250</v>
       </c>
       <c r="E95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2687,22 +2594,21 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="C96">
-        <f t="shared" si="11"/>
-        <v>2975</v>
+        <v>500</v>
       </c>
       <c r="D96">
         <v>250</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2711,22 +2617,21 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="C97">
-        <f t="shared" si="11"/>
-        <v>2960</v>
+        <v>500</v>
       </c>
       <c r="D97">
         <v>250</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2735,22 +2640,21 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>97</v>
       </c>
       <c r="C98">
-        <f t="shared" si="11"/>
-        <v>2945</v>
+        <v>500</v>
       </c>
       <c r="D98">
         <v>250</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2759,22 +2663,21 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
       <c r="C99">
-        <f t="shared" si="11"/>
-        <v>2930</v>
+        <v>500</v>
       </c>
       <c r="D99">
         <v>250</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2783,22 +2686,21 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="C100">
-        <f t="shared" si="11"/>
-        <v>2915</v>
+        <v>500</v>
       </c>
       <c r="D100">
         <v>250</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2807,22 +2709,21 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="C101">
-        <f t="shared" si="11"/>
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="D101">
         <v>250</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2831,22 +2732,21 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102" si="12">SUM(B101,1)</f>
+        <f t="shared" ref="B102" si="9">SUM(B101,1)</f>
         <v>101</v>
       </c>
       <c r="C102">
-        <f>SUM(C101,-10)</f>
-        <v>2890</v>
+        <v>500</v>
       </c>
       <c r="D102">
         <v>250</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2855,22 +2755,21 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:B126" si="13">SUM(B102,1)</f>
+        <f t="shared" ref="B103:B126" si="10">SUM(B102,1)</f>
         <v>102</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:C126" si="14">SUM(C102,-10)</f>
-        <v>2880</v>
+        <v>500</v>
       </c>
       <c r="D103">
         <v>250</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2879,22 +2778,21 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="C104">
-        <f t="shared" si="14"/>
-        <v>2870</v>
+        <v>500</v>
       </c>
       <c r="D104">
         <v>250</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2903,22 +2801,21 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="C105">
-        <f t="shared" si="14"/>
-        <v>2860</v>
+        <v>500</v>
       </c>
       <c r="D105">
         <v>250</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2927,22 +2824,21 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="C106">
-        <f t="shared" si="14"/>
-        <v>2850</v>
+        <v>500</v>
       </c>
       <c r="D106">
         <v>250</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2951,22 +2847,21 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="C107">
-        <f t="shared" si="14"/>
-        <v>2840</v>
+        <v>500</v>
       </c>
       <c r="D107">
         <v>250</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2975,22 +2870,21 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="C108">
-        <f t="shared" si="14"/>
-        <v>2830</v>
+        <v>500</v>
       </c>
       <c r="D108">
         <v>250</v>
       </c>
       <c r="E108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -2999,22 +2893,21 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="C109">
-        <f t="shared" si="14"/>
-        <v>2820</v>
+        <v>500</v>
       </c>
       <c r="D109">
         <v>250</v>
       </c>
       <c r="E109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3023,22 +2916,21 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="C110">
-        <f t="shared" si="14"/>
-        <v>2810</v>
+        <v>500</v>
       </c>
       <c r="D110">
         <v>250</v>
       </c>
       <c r="E110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3047,22 +2939,21 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="C111">
-        <f t="shared" si="14"/>
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="D111">
         <v>250</v>
       </c>
       <c r="E111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3071,22 +2962,21 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="C112">
-        <f t="shared" si="14"/>
-        <v>2790</v>
+        <v>500</v>
       </c>
       <c r="D112">
         <v>250</v>
       </c>
       <c r="E112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3095,22 +2985,21 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="C113">
-        <f t="shared" si="14"/>
-        <v>2780</v>
+        <v>500</v>
       </c>
       <c r="D113">
         <v>250</v>
       </c>
       <c r="E113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3119,22 +3008,21 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="C114">
-        <f t="shared" si="14"/>
-        <v>2770</v>
+        <v>500</v>
       </c>
       <c r="D114">
         <v>250</v>
       </c>
       <c r="E114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3143,22 +3031,21 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="C115">
-        <f t="shared" si="14"/>
-        <v>2760</v>
+        <v>500</v>
       </c>
       <c r="D115">
         <v>250</v>
       </c>
       <c r="E115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3167,22 +3054,21 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="C116">
-        <f t="shared" si="14"/>
-        <v>2750</v>
+        <v>500</v>
       </c>
       <c r="D116">
         <v>250</v>
       </c>
       <c r="E116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3191,22 +3077,21 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="C117">
-        <f t="shared" si="14"/>
-        <v>2740</v>
+        <v>500</v>
       </c>
       <c r="D117">
         <v>250</v>
       </c>
       <c r="E117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3215,22 +3100,21 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="C118">
-        <f t="shared" si="14"/>
-        <v>2730</v>
+        <v>500</v>
       </c>
       <c r="D118">
         <v>250</v>
       </c>
       <c r="E118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3239,22 +3123,21 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="C119">
-        <f t="shared" si="14"/>
-        <v>2720</v>
+        <v>500</v>
       </c>
       <c r="D119">
         <v>250</v>
       </c>
       <c r="E119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3263,22 +3146,21 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="C120">
-        <f t="shared" si="14"/>
-        <v>2710</v>
+        <v>500</v>
       </c>
       <c r="D120">
         <v>250</v>
       </c>
       <c r="E120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3287,22 +3169,21 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="C121">
-        <f t="shared" si="14"/>
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="D121">
         <v>250</v>
       </c>
       <c r="E121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3311,22 +3192,21 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="C122">
-        <f t="shared" si="14"/>
-        <v>2690</v>
+        <v>500</v>
       </c>
       <c r="D122">
         <v>250</v>
       </c>
       <c r="E122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3335,22 +3215,21 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="C123">
-        <f t="shared" si="14"/>
-        <v>2680</v>
+        <v>500</v>
       </c>
       <c r="D123">
         <v>250</v>
       </c>
       <c r="E123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3359,22 +3238,21 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="C124">
-        <f t="shared" si="14"/>
-        <v>2670</v>
+        <v>500</v>
       </c>
       <c r="D124">
         <v>250</v>
       </c>
       <c r="E124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3383,22 +3261,21 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="C125">
-        <f t="shared" si="14"/>
-        <v>2660</v>
+        <v>500</v>
       </c>
       <c r="D125">
         <v>250</v>
       </c>
       <c r="E125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3407,22 +3284,21 @@
         <v>0</v>
       </c>
       <c r="B126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="C126">
-        <f t="shared" si="14"/>
-        <v>2650</v>
+        <v>500</v>
       </c>
       <c r="D126">
         <v>250</v>
       </c>
       <c r="E126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3431,22 +3307,21 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <f t="shared" ref="B127" si="15">SUM(B126,1)</f>
+        <f t="shared" ref="B127" si="11">SUM(B126,1)</f>
         <v>126</v>
       </c>
       <c r="C127">
-        <f>SUM(C126,-5)</f>
-        <v>2645</v>
+        <v>500</v>
       </c>
       <c r="D127">
         <v>250</v>
       </c>
       <c r="E127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3455,22 +3330,21 @@
         <v>0</v>
       </c>
       <c r="B128">
-        <f t="shared" ref="B128:B152" si="16">SUM(B127,1)</f>
+        <f t="shared" ref="B128:B152" si="12">SUM(B127,1)</f>
         <v>127</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:C151" si="17">SUM(C127,-5)</f>
-        <v>2640</v>
+        <v>500</v>
       </c>
       <c r="D128">
         <v>250</v>
       </c>
       <c r="E128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3479,22 +3353,21 @@
         <v>0</v>
       </c>
       <c r="B129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="C129">
-        <f t="shared" si="17"/>
-        <v>2635</v>
+        <v>500</v>
       </c>
       <c r="D129">
         <v>250</v>
       </c>
       <c r="E129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3503,22 +3376,21 @@
         <v>0</v>
       </c>
       <c r="B130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>129</v>
       </c>
       <c r="C130">
-        <f t="shared" si="17"/>
-        <v>2630</v>
+        <v>500</v>
       </c>
       <c r="D130">
         <v>250</v>
       </c>
       <c r="E130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="F130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
@@ -3527,22 +3399,21 @@
         <v>0</v>
       </c>
       <c r="B131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="C131">
-        <f t="shared" si="17"/>
-        <v>2625</v>
+        <v>500</v>
       </c>
       <c r="D131">
         <v>250</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="18">D131*2</f>
+        <f t="shared" ref="E131:E194" si="13">D131*2</f>
         <v>500</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="19">D131*3</f>
+        <f t="shared" ref="F131:F194" si="14">D131*3</f>
         <v>750</v>
       </c>
     </row>
@@ -3551,22 +3422,21 @@
         <v>0</v>
       </c>
       <c r="B132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="C132">
-        <f t="shared" si="17"/>
-        <v>2620</v>
+        <v>500</v>
       </c>
       <c r="D132">
         <v>250</v>
       </c>
       <c r="E132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3575,22 +3445,21 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="C133">
-        <f t="shared" si="17"/>
-        <v>2615</v>
+        <v>500</v>
       </c>
       <c r="D133">
         <v>250</v>
       </c>
       <c r="E133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3599,22 +3468,21 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="C134">
-        <f t="shared" si="17"/>
-        <v>2610</v>
+        <v>500</v>
       </c>
       <c r="D134">
         <v>250</v>
       </c>
       <c r="E134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3623,22 +3491,21 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="C135">
-        <f t="shared" si="17"/>
-        <v>2605</v>
+        <v>500</v>
       </c>
       <c r="D135">
         <v>250</v>
       </c>
       <c r="E135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3647,22 +3514,21 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="C136">
-        <f t="shared" si="17"/>
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="D136">
         <v>250</v>
       </c>
       <c r="E136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3671,22 +3537,21 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="C137">
-        <f t="shared" si="17"/>
-        <v>2595</v>
+        <v>500</v>
       </c>
       <c r="D137">
         <v>250</v>
       </c>
       <c r="E137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3695,22 +3560,21 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="C138">
-        <f t="shared" si="17"/>
-        <v>2590</v>
+        <v>500</v>
       </c>
       <c r="D138">
         <v>250</v>
       </c>
       <c r="E138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3719,22 +3583,21 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="C139">
-        <f t="shared" si="17"/>
-        <v>2585</v>
+        <v>500</v>
       </c>
       <c r="D139">
         <v>250</v>
       </c>
       <c r="E139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3743,22 +3606,21 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="C140">
-        <f t="shared" si="17"/>
-        <v>2580</v>
+        <v>500</v>
       </c>
       <c r="D140">
         <v>250</v>
       </c>
       <c r="E140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3767,22 +3629,21 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="C141">
-        <f t="shared" si="17"/>
-        <v>2575</v>
+        <v>500</v>
       </c>
       <c r="D141">
         <v>250</v>
       </c>
       <c r="E141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3791,22 +3652,21 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="C142">
-        <f t="shared" si="17"/>
-        <v>2570</v>
+        <v>500</v>
       </c>
       <c r="D142">
         <v>250</v>
       </c>
       <c r="E142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3815,22 +3675,21 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="C143">
-        <f t="shared" si="17"/>
-        <v>2565</v>
+        <v>500</v>
       </c>
       <c r="D143">
         <v>250</v>
       </c>
       <c r="E143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3839,22 +3698,21 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="C144">
-        <f t="shared" si="17"/>
-        <v>2560</v>
+        <v>500</v>
       </c>
       <c r="D144">
         <v>250</v>
       </c>
       <c r="E144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3863,22 +3721,21 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="C145">
-        <f t="shared" si="17"/>
-        <v>2555</v>
+        <v>500</v>
       </c>
       <c r="D145">
         <v>250</v>
       </c>
       <c r="E145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3887,22 +3744,21 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="C146">
-        <f t="shared" si="17"/>
-        <v>2550</v>
+        <v>500</v>
       </c>
       <c r="D146">
         <v>250</v>
       </c>
       <c r="E146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3911,22 +3767,21 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="C147">
-        <f t="shared" si="17"/>
-        <v>2545</v>
+        <v>500</v>
       </c>
       <c r="D147">
         <v>250</v>
       </c>
       <c r="E147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3935,22 +3790,21 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="C148">
-        <f t="shared" si="17"/>
-        <v>2540</v>
+        <v>500</v>
       </c>
       <c r="D148">
         <v>250</v>
       </c>
       <c r="E148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3959,22 +3813,21 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="C149">
-        <f t="shared" si="17"/>
-        <v>2535</v>
+        <v>500</v>
       </c>
       <c r="D149">
         <v>250</v>
       </c>
       <c r="E149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -3983,22 +3836,21 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="C150">
-        <f t="shared" si="17"/>
-        <v>2530</v>
+        <v>500</v>
       </c>
       <c r="D150">
         <v>250</v>
       </c>
       <c r="E150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4007,22 +3859,21 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="C151">
-        <f t="shared" si="17"/>
-        <v>2525</v>
+        <v>500</v>
       </c>
       <c r="D151">
         <v>250</v>
       </c>
       <c r="E151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4031,22 +3882,21 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="C152">
-        <f>SUM(C151,-5)</f>
-        <v>2520</v>
+        <v>500</v>
       </c>
       <c r="D152">
         <v>250</v>
       </c>
       <c r="E152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4055,22 +3905,21 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <f t="shared" ref="B153:B154" si="20">SUM(B152,1)</f>
+        <f t="shared" ref="B153:B154" si="15">SUM(B152,1)</f>
         <v>152</v>
       </c>
       <c r="C153">
-        <f t="shared" ref="C153:C154" si="21">SUM(C152,-5)</f>
-        <v>2515</v>
+        <v>500</v>
       </c>
       <c r="D153">
         <v>250</v>
       </c>
       <c r="E153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4079,22 +3928,21 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>153</v>
       </c>
       <c r="C154">
-        <f t="shared" si="21"/>
-        <v>2510</v>
+        <v>500</v>
       </c>
       <c r="D154">
         <v>250</v>
       </c>
       <c r="E154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F154">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4103,22 +3951,21 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <f t="shared" ref="B155:B157" si="22">SUM(B154,1)</f>
+        <f t="shared" ref="B155:B157" si="16">SUM(B154,1)</f>
         <v>154</v>
       </c>
       <c r="C155">
-        <f t="shared" ref="C155" si="23">SUM(C154,-5)</f>
-        <v>2505</v>
+        <v>500</v>
       </c>
       <c r="D155">
         <v>250</v>
       </c>
       <c r="E155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4127,21 +3974,21 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>155</v>
       </c>
       <c r="C156">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D156">
         <v>250</v>
       </c>
       <c r="E156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4150,21 +3997,21 @@
         <v>0</v>
       </c>
       <c r="B157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
       <c r="C157">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D157">
         <v>250</v>
       </c>
       <c r="E157">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4173,21 +4020,21 @@
         <v>0</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:B201" si="24">SUM(B157,1)</f>
+        <f t="shared" ref="B158:B201" si="17">SUM(B157,1)</f>
         <v>157</v>
       </c>
       <c r="C158">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D158">
         <v>250</v>
       </c>
       <c r="E158">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4196,21 +4043,21 @@
         <v>0</v>
       </c>
       <c r="B159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>158</v>
       </c>
       <c r="C159">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D159">
         <v>250</v>
       </c>
       <c r="E159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4219,21 +4066,21 @@
         <v>0</v>
       </c>
       <c r="B160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>159</v>
       </c>
       <c r="C160">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D160">
         <v>250</v>
       </c>
       <c r="E160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4242,21 +4089,21 @@
         <v>0</v>
       </c>
       <c r="B161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>160</v>
       </c>
       <c r="C161">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D161">
         <v>250</v>
       </c>
       <c r="E161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4265,21 +4112,21 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>161</v>
       </c>
       <c r="C162">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D162">
         <v>250</v>
       </c>
       <c r="E162">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4288,21 +4135,21 @@
         <v>0</v>
       </c>
       <c r="B163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>162</v>
       </c>
       <c r="C163">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D163">
         <v>250</v>
       </c>
       <c r="E163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4311,21 +4158,21 @@
         <v>0</v>
       </c>
       <c r="B164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>163</v>
       </c>
       <c r="C164">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D164">
         <v>250</v>
       </c>
       <c r="E164">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F164">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4334,21 +4181,21 @@
         <v>0</v>
       </c>
       <c r="B165">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
       <c r="C165">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D165">
         <v>250</v>
       </c>
       <c r="E165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F165">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4357,21 +4204,21 @@
         <v>0</v>
       </c>
       <c r="B166">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>165</v>
       </c>
       <c r="C166">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D166">
         <v>250</v>
       </c>
       <c r="E166">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F166">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4380,21 +4227,21 @@
         <v>0</v>
       </c>
       <c r="B167">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>166</v>
       </c>
       <c r="C167">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D167">
         <v>250</v>
       </c>
       <c r="E167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4403,21 +4250,21 @@
         <v>0</v>
       </c>
       <c r="B168">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>167</v>
       </c>
       <c r="C168">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D168">
         <v>250</v>
       </c>
       <c r="E168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4426,21 +4273,21 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>168</v>
       </c>
       <c r="C169">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D169">
         <v>250</v>
       </c>
       <c r="E169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4449,21 +4296,21 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>169</v>
       </c>
       <c r="C170">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D170">
         <v>250</v>
       </c>
       <c r="E170">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4472,21 +4319,21 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>170</v>
       </c>
       <c r="C171">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D171">
         <v>250</v>
       </c>
       <c r="E171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4495,21 +4342,21 @@
         <v>0</v>
       </c>
       <c r="B172">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>171</v>
       </c>
       <c r="C172">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D172">
         <v>250</v>
       </c>
       <c r="E172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F172">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4518,21 +4365,21 @@
         <v>0</v>
       </c>
       <c r="B173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>172</v>
       </c>
       <c r="C173">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D173">
         <v>250</v>
       </c>
       <c r="E173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F173">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4541,21 +4388,21 @@
         <v>0</v>
       </c>
       <c r="B174">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>173</v>
       </c>
       <c r="C174">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D174">
         <v>250</v>
       </c>
       <c r="E174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F174">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4564,21 +4411,21 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>174</v>
       </c>
       <c r="C175">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D175">
         <v>250</v>
       </c>
       <c r="E175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F175">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4587,21 +4434,21 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>175</v>
       </c>
       <c r="C176">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D176">
         <v>250</v>
       </c>
       <c r="E176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4610,21 +4457,21 @@
         <v>0</v>
       </c>
       <c r="B177">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>176</v>
       </c>
       <c r="C177">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D177">
         <v>250</v>
       </c>
       <c r="E177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4633,21 +4480,21 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>177</v>
       </c>
       <c r="C178">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D178">
         <v>250</v>
       </c>
       <c r="E178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4656,21 +4503,21 @@
         <v>0</v>
       </c>
       <c r="B179">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>178</v>
       </c>
       <c r="C179">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D179">
         <v>250</v>
       </c>
       <c r="E179">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F179">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4679,21 +4526,21 @@
         <v>0</v>
       </c>
       <c r="B180">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>179</v>
       </c>
       <c r="C180">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D180">
         <v>250</v>
       </c>
       <c r="E180">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4702,21 +4549,21 @@
         <v>0</v>
       </c>
       <c r="B181">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>180</v>
       </c>
       <c r="C181">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D181">
         <v>250</v>
       </c>
       <c r="E181">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4725,21 +4572,21 @@
         <v>0</v>
       </c>
       <c r="B182">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>181</v>
       </c>
       <c r="C182">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D182">
         <v>250</v>
       </c>
       <c r="E182">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F182">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4748,21 +4595,21 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>182</v>
       </c>
       <c r="C183">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D183">
         <v>250</v>
       </c>
       <c r="E183">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F183">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4771,21 +4618,21 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>183</v>
       </c>
       <c r="C184">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D184">
         <v>250</v>
       </c>
       <c r="E184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4794,21 +4641,21 @@
         <v>0</v>
       </c>
       <c r="B185">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>184</v>
       </c>
       <c r="C185">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D185">
         <v>250</v>
       </c>
       <c r="E185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F185">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4817,21 +4664,21 @@
         <v>0</v>
       </c>
       <c r="B186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>185</v>
       </c>
       <c r="C186">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D186">
         <v>250</v>
       </c>
       <c r="E186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F186">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4840,21 +4687,21 @@
         <v>0</v>
       </c>
       <c r="B187">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>186</v>
       </c>
       <c r="C187">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D187">
         <v>250</v>
       </c>
       <c r="E187">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4863,21 +4710,21 @@
         <v>0</v>
       </c>
       <c r="B188">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>187</v>
       </c>
       <c r="C188">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D188">
         <v>250</v>
       </c>
       <c r="E188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F188">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4886,21 +4733,21 @@
         <v>0</v>
       </c>
       <c r="B189">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>188</v>
       </c>
       <c r="C189">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D189">
         <v>250</v>
       </c>
       <c r="E189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F189">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4909,21 +4756,21 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>189</v>
       </c>
       <c r="C190">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D190">
         <v>250</v>
       </c>
       <c r="E190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F190">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4932,21 +4779,21 @@
         <v>0</v>
       </c>
       <c r="B191">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>190</v>
       </c>
       <c r="C191">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D191">
         <v>250</v>
       </c>
       <c r="E191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F191">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4955,21 +4802,21 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>191</v>
       </c>
       <c r="C192">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D192">
         <v>250</v>
       </c>
       <c r="E192">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F192">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -4978,21 +4825,21 @@
         <v>0</v>
       </c>
       <c r="B193">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>192</v>
       </c>
       <c r="C193">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D193">
         <v>250</v>
       </c>
       <c r="E193">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F193">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -5001,21 +4848,21 @@
         <v>0</v>
       </c>
       <c r="B194">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>193</v>
       </c>
       <c r="C194">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D194">
         <v>250</v>
       </c>
       <c r="E194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F194">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
     </row>
@@ -5024,21 +4871,21 @@
         <v>0</v>
       </c>
       <c r="B195">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>194</v>
       </c>
       <c r="C195">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D195">
         <v>250</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E201" si="25">D195*2</f>
+        <f t="shared" ref="E195:E201" si="18">D195*2</f>
         <v>500</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F201" si="26">D195*3</f>
+        <f t="shared" ref="F195:F201" si="19">D195*3</f>
         <v>750</v>
       </c>
     </row>
@@ -5047,21 +4894,21 @@
         <v>0</v>
       </c>
       <c r="B196">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>195</v>
       </c>
       <c r="C196">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D196">
         <v>250</v>
       </c>
       <c r="E196">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="F196">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
     </row>
@@ -5070,21 +4917,21 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>196</v>
       </c>
       <c r="C197">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D197">
         <v>250</v>
       </c>
       <c r="E197">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="F197">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
     </row>
@@ -5093,21 +4940,21 @@
         <v>0</v>
       </c>
       <c r="B198">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>197</v>
       </c>
       <c r="C198">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D198">
         <v>250</v>
       </c>
       <c r="E198">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="F198">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
     </row>
@@ -5116,21 +4963,21 @@
         <v>0</v>
       </c>
       <c r="B199">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>198</v>
       </c>
       <c r="C199">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D199">
         <v>250</v>
       </c>
       <c r="E199">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="F199">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
     </row>
@@ -5139,21 +4986,21 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>199</v>
       </c>
       <c r="C200">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D200">
         <v>250</v>
       </c>
       <c r="E200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="F200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
     </row>
@@ -5162,21 +5009,21 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
       <c r="C201">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D201">
         <v>250</v>
       </c>
       <c r="E201">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="F201">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>750</v>
       </c>
     </row>

--- a/Database/Currency.xlsx
+++ b/Database/Currency.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,15 +439,15 @@
         <v>500</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <f>D2*2</f>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <f>D2*3</f>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -462,15 +462,15 @@
         <v>500</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">D3*2</f>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">D3*3</f>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,15 +485,15 @@
         <v>500</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,15 +508,15 @@
         <v>500</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,15 +531,15 @@
         <v>500</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,15 +554,15 @@
         <v>500</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,15 +577,15 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -600,15 +600,15 @@
         <v>500</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,15 +623,15 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,15 +646,15 @@
         <v>500</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,15 +669,15 @@
         <v>500</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,15 +692,15 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,15 +715,15 @@
         <v>500</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,15 +738,15 @@
         <v>500</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,15 +761,15 @@
         <v>500</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,15 +784,15 @@
         <v>500</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,15 +807,15 @@
         <v>500</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,15 +830,15 @@
         <v>500</v>
       </c>
       <c r="D19">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,15 +853,15 @@
         <v>500</v>
       </c>
       <c r="D20">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,15 +876,15 @@
         <v>500</v>
       </c>
       <c r="D21">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,15 +899,15 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,15 +922,15 @@
         <v>500</v>
       </c>
       <c r="D23">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,15 +945,15 @@
         <v>500</v>
       </c>
       <c r="D24">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,15 +968,15 @@
         <v>500</v>
       </c>
       <c r="D25">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,15 +991,15 @@
         <v>500</v>
       </c>
       <c r="D26">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,15 +1014,15 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,15 +1037,15 @@
         <v>500</v>
       </c>
       <c r="D28">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,15 +1060,15 @@
         <v>500</v>
       </c>
       <c r="D29">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,15 +1083,15 @@
         <v>500</v>
       </c>
       <c r="D30">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,15 +1106,15 @@
         <v>500</v>
       </c>
       <c r="D31">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,15 +1129,15 @@
         <v>500</v>
       </c>
       <c r="D32">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,15 +1152,15 @@
         <v>500</v>
       </c>
       <c r="D33">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,15 +1175,15 @@
         <v>500</v>
       </c>
       <c r="D34">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,15 +1198,15 @@
         <v>500</v>
       </c>
       <c r="D35">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,15 +1221,15 @@
         <v>500</v>
       </c>
       <c r="D36">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,15 +1244,15 @@
         <v>500</v>
       </c>
       <c r="D37">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,15 +1267,15 @@
         <v>500</v>
       </c>
       <c r="D38">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1290,15 +1290,15 @@
         <v>500</v>
       </c>
       <c r="D39">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,15 +1313,15 @@
         <v>500</v>
       </c>
       <c r="D40">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,15 +1336,15 @@
         <v>500</v>
       </c>
       <c r="D41">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,15 +1359,15 @@
         <v>500</v>
       </c>
       <c r="D42">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,15 +1382,15 @@
         <v>500</v>
       </c>
       <c r="D43">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,15 +1405,15 @@
         <v>500</v>
       </c>
       <c r="D44">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1428,15 +1428,15 @@
         <v>500</v>
       </c>
       <c r="D45">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,15 +1451,15 @@
         <v>500</v>
       </c>
       <c r="D46">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,15 +1474,15 @@
         <v>500</v>
       </c>
       <c r="D47">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,15 +1497,15 @@
         <v>500</v>
       </c>
       <c r="D48">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,15 +1520,15 @@
         <v>500</v>
       </c>
       <c r="D49">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,15 +1543,15 @@
         <v>500</v>
       </c>
       <c r="D50">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,15 +1566,15 @@
         <v>500</v>
       </c>
       <c r="D51">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,15 +1589,15 @@
         <v>500</v>
       </c>
       <c r="D52">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,15 +1612,15 @@
         <v>500</v>
       </c>
       <c r="D53">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,15 +1635,15 @@
         <v>500</v>
       </c>
       <c r="D54">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,15 +1658,15 @@
         <v>500</v>
       </c>
       <c r="D55">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,15 +1681,15 @@
         <v>500</v>
       </c>
       <c r="D56">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,15 +1704,15 @@
         <v>500</v>
       </c>
       <c r="D57">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,15 +1727,15 @@
         <v>500</v>
       </c>
       <c r="D58">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,15 +1750,15 @@
         <v>500</v>
       </c>
       <c r="D59">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,15 +1773,15 @@
         <v>500</v>
       </c>
       <c r="D60">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,15 +1796,15 @@
         <v>500</v>
       </c>
       <c r="D61">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,15 +1819,15 @@
         <v>500</v>
       </c>
       <c r="D62">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,15 +1842,15 @@
         <v>500</v>
       </c>
       <c r="D63">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,15 +1865,15 @@
         <v>500</v>
       </c>
       <c r="D64">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,15 +1888,15 @@
         <v>500</v>
       </c>
       <c r="D65">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,15 +1911,15 @@
         <v>500</v>
       </c>
       <c r="D66">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,15 +1934,15 @@
         <v>500</v>
       </c>
       <c r="D67">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="5">D67*2</f>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" si="6">D67*3</f>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,15 +1957,15 @@
         <v>500</v>
       </c>
       <c r="D68">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,15 +1980,15 @@
         <v>500</v>
       </c>
       <c r="D69">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,15 +2003,15 @@
         <v>500</v>
       </c>
       <c r="D70">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F70">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,15 +2026,15 @@
         <v>500</v>
       </c>
       <c r="D71">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,15 +2049,15 @@
         <v>500</v>
       </c>
       <c r="D72">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F72">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,15 +2072,15 @@
         <v>500</v>
       </c>
       <c r="D73">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F73">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,15 +2095,15 @@
         <v>500</v>
       </c>
       <c r="D74">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,15 +2118,15 @@
         <v>500</v>
       </c>
       <c r="D75">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F75">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,15 +2141,15 @@
         <v>500</v>
       </c>
       <c r="D76">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F76">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,15 +2164,15 @@
         <v>500</v>
       </c>
       <c r="D77">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F77">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,15 +2187,15 @@
         <v>500</v>
       </c>
       <c r="D78">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F78">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,15 +2210,15 @@
         <v>500</v>
       </c>
       <c r="D79">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F79">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,15 +2233,15 @@
         <v>500</v>
       </c>
       <c r="D80">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F80">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,15 +2256,15 @@
         <v>500</v>
       </c>
       <c r="D81">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F81">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,15 +2279,15 @@
         <v>500</v>
       </c>
       <c r="D82">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F82">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,15 +2302,15 @@
         <v>500</v>
       </c>
       <c r="D83">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F83">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,15 +2325,15 @@
         <v>500</v>
       </c>
       <c r="D84">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F84">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,15 +2348,15 @@
         <v>500</v>
       </c>
       <c r="D85">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F85">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,15 +2371,15 @@
         <v>500</v>
       </c>
       <c r="D86">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F86">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,15 +2394,15 @@
         <v>500</v>
       </c>
       <c r="D87">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F87">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,15 +2417,15 @@
         <v>500</v>
       </c>
       <c r="D88">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F88">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,15 +2440,15 @@
         <v>500</v>
       </c>
       <c r="D89">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F89">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,15 +2463,15 @@
         <v>500</v>
       </c>
       <c r="D90">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F90">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,15 +2486,15 @@
         <v>500</v>
       </c>
       <c r="D91">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F91">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,15 +2509,15 @@
         <v>500</v>
       </c>
       <c r="D92">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F92">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,15 +2532,15 @@
         <v>500</v>
       </c>
       <c r="D93">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F93">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,15 +2555,15 @@
         <v>500</v>
       </c>
       <c r="D94">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F94">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,15 +2578,15 @@
         <v>500</v>
       </c>
       <c r="D95">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E95">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F95">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,15 +2601,15 @@
         <v>500</v>
       </c>
       <c r="D96">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F96">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,15 +2624,15 @@
         <v>500</v>
       </c>
       <c r="D97">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F97">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,15 +2647,15 @@
         <v>500</v>
       </c>
       <c r="D98">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F98">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2670,15 +2670,15 @@
         <v>500</v>
       </c>
       <c r="D99">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E99">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F99">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,15 +2693,15 @@
         <v>500</v>
       </c>
       <c r="D100">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F100">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,15 +2716,15 @@
         <v>500</v>
       </c>
       <c r="D101">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F101">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,15 +2739,15 @@
         <v>500</v>
       </c>
       <c r="D102">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F102">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,15 +2762,15 @@
         <v>500</v>
       </c>
       <c r="D103">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F103">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2785,15 +2785,15 @@
         <v>500</v>
       </c>
       <c r="D104">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F104">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2808,15 +2808,15 @@
         <v>500</v>
       </c>
       <c r="D105">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E105">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F105">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,15 +2831,15 @@
         <v>500</v>
       </c>
       <c r="D106">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F106">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,15 +2854,15 @@
         <v>500</v>
       </c>
       <c r="D107">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E107">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F107">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,15 +2877,15 @@
         <v>500</v>
       </c>
       <c r="D108">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E108">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F108">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,15 +2900,15 @@
         <v>500</v>
       </c>
       <c r="D109">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F109">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,15 +2923,15 @@
         <v>500</v>
       </c>
       <c r="D110">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E110">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F110">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,15 +2946,15 @@
         <v>500</v>
       </c>
       <c r="D111">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E111">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F111">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,15 +2969,15 @@
         <v>500</v>
       </c>
       <c r="D112">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E112">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F112">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,15 +2992,15 @@
         <v>500</v>
       </c>
       <c r="D113">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E113">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F113">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,15 +3015,15 @@
         <v>500</v>
       </c>
       <c r="D114">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E114">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F114">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,15 +3038,15 @@
         <v>500</v>
       </c>
       <c r="D115">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E115">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,15 +3061,15 @@
         <v>500</v>
       </c>
       <c r="D116">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E116">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F116">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,15 +3084,15 @@
         <v>500</v>
       </c>
       <c r="D117">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F117">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,15 +3107,15 @@
         <v>500</v>
       </c>
       <c r="D118">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E118">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F118">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,15 +3130,15 @@
         <v>500</v>
       </c>
       <c r="D119">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E119">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F119">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3153,15 +3153,15 @@
         <v>500</v>
       </c>
       <c r="D120">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E120">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F120">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,15 +3176,15 @@
         <v>500</v>
       </c>
       <c r="D121">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E121">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F121">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,15 +3199,15 @@
         <v>500</v>
       </c>
       <c r="D122">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F122">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,15 +3222,15 @@
         <v>500</v>
       </c>
       <c r="D123">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F123">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,15 +3245,15 @@
         <v>500</v>
       </c>
       <c r="D124">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F124">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,15 +3268,15 @@
         <v>500</v>
       </c>
       <c r="D125">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E125">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F125">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,15 +3291,15 @@
         <v>500</v>
       </c>
       <c r="D126">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E126">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F126">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,15 +3314,15 @@
         <v>500</v>
       </c>
       <c r="D127">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E127">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F127">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,15 +3337,15 @@
         <v>500</v>
       </c>
       <c r="D128">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F128">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3360,15 +3360,15 @@
         <v>500</v>
       </c>
       <c r="D129">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E129">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F129">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,15 +3383,15 @@
         <v>500</v>
       </c>
       <c r="D130">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F130">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3406,15 +3406,15 @@
         <v>500</v>
       </c>
       <c r="D131">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="13">D131*2</f>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" si="14">D131*3</f>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,15 +3429,15 @@
         <v>500</v>
       </c>
       <c r="D132">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E132">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F132">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,15 +3452,15 @@
         <v>500</v>
       </c>
       <c r="D133">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E133">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F133">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,15 +3475,15 @@
         <v>500</v>
       </c>
       <c r="D134">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E134">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F134">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,15 +3498,15 @@
         <v>500</v>
       </c>
       <c r="D135">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E135">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F135">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,15 +3521,15 @@
         <v>500</v>
       </c>
       <c r="D136">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E136">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F136">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,15 +3544,15 @@
         <v>500</v>
       </c>
       <c r="D137">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E137">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F137">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,15 +3567,15 @@
         <v>500</v>
       </c>
       <c r="D138">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E138">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F138">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3590,15 +3590,15 @@
         <v>500</v>
       </c>
       <c r="D139">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E139">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F139">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,15 +3613,15 @@
         <v>500</v>
       </c>
       <c r="D140">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E140">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F140">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3636,15 +3636,15 @@
         <v>500</v>
       </c>
       <c r="D141">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E141">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F141">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,15 +3659,15 @@
         <v>500</v>
       </c>
       <c r="D142">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E142">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F142">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,15 +3682,15 @@
         <v>500</v>
       </c>
       <c r="D143">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E143">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F143">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,15 +3705,15 @@
         <v>500</v>
       </c>
       <c r="D144">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E144">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F144">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3728,15 +3728,15 @@
         <v>500</v>
       </c>
       <c r="D145">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E145">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F145">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,15 +3751,15 @@
         <v>500</v>
       </c>
       <c r="D146">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E146">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F146">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3774,15 +3774,15 @@
         <v>500</v>
       </c>
       <c r="D147">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E147">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F147">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,15 +3797,15 @@
         <v>500</v>
       </c>
       <c r="D148">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E148">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F148">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,15 +3820,15 @@
         <v>500</v>
       </c>
       <c r="D149">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E149">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F149">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3843,15 +3843,15 @@
         <v>500</v>
       </c>
       <c r="D150">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E150">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F150">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3866,15 +3866,15 @@
         <v>500</v>
       </c>
       <c r="D151">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E151">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F151">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,15 +3889,15 @@
         <v>500</v>
       </c>
       <c r="D152">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E152">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F152">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,15 +3912,15 @@
         <v>500</v>
       </c>
       <c r="D153">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F153">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,15 +3935,15 @@
         <v>500</v>
       </c>
       <c r="D154">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F154">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,15 +3958,15 @@
         <v>500</v>
       </c>
       <c r="D155">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E155">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F155">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,15 +3981,15 @@
         <v>500</v>
       </c>
       <c r="D156">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E156">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F156">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,15 +4004,15 @@
         <v>500</v>
       </c>
       <c r="D157">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E157">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F157">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4027,15 +4027,15 @@
         <v>500</v>
       </c>
       <c r="D158">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F158">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,15 +4050,15 @@
         <v>500</v>
       </c>
       <c r="D159">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E159">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F159">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4073,15 +4073,15 @@
         <v>500</v>
       </c>
       <c r="D160">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E160">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F160">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,15 +4096,15 @@
         <v>500</v>
       </c>
       <c r="D161">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E161">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F161">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,15 +4119,15 @@
         <v>500</v>
       </c>
       <c r="D162">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E162">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F162">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,15 +4142,15 @@
         <v>500</v>
       </c>
       <c r="D163">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E163">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F163">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,15 +4165,15 @@
         <v>500</v>
       </c>
       <c r="D164">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E164">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F164">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4188,15 +4188,15 @@
         <v>500</v>
       </c>
       <c r="D165">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E165">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F165">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,15 +4211,15 @@
         <v>500</v>
       </c>
       <c r="D166">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E166">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F166">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,15 +4234,15 @@
         <v>500</v>
       </c>
       <c r="D167">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E167">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F167">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4257,15 +4257,15 @@
         <v>500</v>
       </c>
       <c r="D168">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E168">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F168">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4280,15 +4280,15 @@
         <v>500</v>
       </c>
       <c r="D169">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E169">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F169">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4303,15 +4303,15 @@
         <v>500</v>
       </c>
       <c r="D170">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E170">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F170">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4326,15 +4326,15 @@
         <v>500</v>
       </c>
       <c r="D171">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E171">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F171">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4349,15 +4349,15 @@
         <v>500</v>
       </c>
       <c r="D172">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F172">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,15 +4372,15 @@
         <v>500</v>
       </c>
       <c r="D173">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E173">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F173">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,15 +4395,15 @@
         <v>500</v>
       </c>
       <c r="D174">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E174">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F174">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4418,15 +4418,15 @@
         <v>500</v>
       </c>
       <c r="D175">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E175">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F175">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4441,15 +4441,15 @@
         <v>500</v>
       </c>
       <c r="D176">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E176">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F176">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,15 +4464,15 @@
         <v>500</v>
       </c>
       <c r="D177">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E177">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F177">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,15 +4487,15 @@
         <v>500</v>
       </c>
       <c r="D178">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E178">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F178">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,15 +4510,15 @@
         <v>500</v>
       </c>
       <c r="D179">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E179">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F179">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4533,15 +4533,15 @@
         <v>500</v>
       </c>
       <c r="D180">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F180">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,15 +4556,15 @@
         <v>500</v>
       </c>
       <c r="D181">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E181">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F181">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,15 +4579,15 @@
         <v>500</v>
       </c>
       <c r="D182">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E182">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F182">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,15 +4602,15 @@
         <v>500</v>
       </c>
       <c r="D183">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F183">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,15 +4625,15 @@
         <v>500</v>
       </c>
       <c r="D184">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E184">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F184">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,15 +4648,15 @@
         <v>500</v>
       </c>
       <c r="D185">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F185">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4671,15 +4671,15 @@
         <v>500</v>
       </c>
       <c r="D186">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F186">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,15 +4694,15 @@
         <v>500</v>
       </c>
       <c r="D187">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F187">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,15 +4717,15 @@
         <v>500</v>
       </c>
       <c r="D188">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E188">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F188">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4740,15 +4740,15 @@
         <v>500</v>
       </c>
       <c r="D189">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E189">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F189">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4763,15 +4763,15 @@
         <v>500</v>
       </c>
       <c r="D190">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E190">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F190">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,15 +4786,15 @@
         <v>500</v>
       </c>
       <c r="D191">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E191">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F191">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,15 +4809,15 @@
         <v>500</v>
       </c>
       <c r="D192">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E192">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F192">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,15 +4832,15 @@
         <v>500</v>
       </c>
       <c r="D193">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E193">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F193">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,15 +4855,15 @@
         <v>500</v>
       </c>
       <c r="D194">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E194">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F194">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4878,15 +4878,15 @@
         <v>500</v>
       </c>
       <c r="D195">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E201" si="18">D195*2</f>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F195">
         <f t="shared" ref="F195:F201" si="19">D195*3</f>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,15 +4901,15 @@
         <v>500</v>
       </c>
       <c r="D196">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E196">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F196">
         <f t="shared" si="19"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,15 +4924,15 @@
         <v>500</v>
       </c>
       <c r="D197">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E197">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F197">
         <f t="shared" si="19"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4947,15 +4947,15 @@
         <v>500</v>
       </c>
       <c r="D198">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E198">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F198">
         <f t="shared" si="19"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,15 +4970,15 @@
         <v>500</v>
       </c>
       <c r="D199">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E199">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F199">
         <f t="shared" si="19"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4993,15 +4993,15 @@
         <v>500</v>
       </c>
       <c r="D200">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E200">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F200">
         <f t="shared" si="19"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5016,15 +5016,15 @@
         <v>500</v>
       </c>
       <c r="D201">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E201">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F201">
         <f t="shared" si="19"/>
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
